--- a/data/pca/factorExposure/factorExposure_2011-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02209282906892324</v>
+        <v>-0.018776566785183</v>
       </c>
       <c r="C2">
-        <v>-0.002116380560904316</v>
+        <v>0.001130508316209736</v>
       </c>
       <c r="D2">
-        <v>0.05208073342342857</v>
+        <v>0.006066572024201381</v>
       </c>
       <c r="E2">
-        <v>-0.02733281533378923</v>
+        <v>-0.0411334678330947</v>
       </c>
       <c r="F2">
-        <v>-0.04580392562593266</v>
+        <v>-0.0007126333111652678</v>
       </c>
       <c r="G2">
-        <v>0.013866102135536</v>
+        <v>-0.02830519695460373</v>
       </c>
       <c r="H2">
-        <v>0.0276138574199134</v>
+        <v>-0.01428355128542406</v>
       </c>
       <c r="I2">
-        <v>0.06641773153903101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.04351715984795802</v>
+      </c>
+      <c r="J2">
+        <v>-0.01694394067647519</v>
+      </c>
+      <c r="K2">
+        <v>0.03719083178352753</v>
+      </c>
+      <c r="L2">
+        <v>-0.05167852126941522</v>
+      </c>
+      <c r="M2">
+        <v>0.008951951465828918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07283602828752211</v>
+        <v>-0.1051085216996113</v>
       </c>
       <c r="C4">
-        <v>0.0619777062255843</v>
+        <v>-0.07898736353862668</v>
       </c>
       <c r="D4">
-        <v>0.03149584032651846</v>
+        <v>0.02651927923615879</v>
       </c>
       <c r="E4">
-        <v>-0.04021198838066904</v>
+        <v>-0.04395437060756983</v>
       </c>
       <c r="F4">
-        <v>0.006711532188205331</v>
+        <v>-0.1104306227684269</v>
       </c>
       <c r="G4">
-        <v>0.02420193534627957</v>
+        <v>0.008269022917727924</v>
       </c>
       <c r="H4">
-        <v>-0.004719745568793711</v>
+        <v>0.06038275916956067</v>
       </c>
       <c r="I4">
-        <v>-0.001217443154000106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.01453789621393116</v>
+      </c>
+      <c r="J4">
+        <v>0.0752549517067575</v>
+      </c>
+      <c r="K4">
+        <v>0.005624912615004693</v>
+      </c>
+      <c r="L4">
+        <v>0.07041308807922343</v>
+      </c>
+      <c r="M4">
+        <v>0.02748903723337593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1344220721705789</v>
+        <v>-0.1298832372525662</v>
       </c>
       <c r="C6">
-        <v>0.04610718779155001</v>
+        <v>-0.05576257301488301</v>
       </c>
       <c r="D6">
-        <v>0.06636628324236847</v>
+        <v>0.007875062175491344</v>
       </c>
       <c r="E6">
-        <v>-0.1017928492930405</v>
+        <v>-0.02434002336039878</v>
       </c>
       <c r="F6">
-        <v>0.08091651287956829</v>
+        <v>-0.05298159375185158</v>
       </c>
       <c r="G6">
-        <v>-0.06024971610613342</v>
+        <v>0.1663147966999529</v>
       </c>
       <c r="H6">
-        <v>-0.2917968922085664</v>
+        <v>-0.06847124889966329</v>
       </c>
       <c r="I6">
-        <v>0.03146736217226206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.04109850139916731</v>
+      </c>
+      <c r="J6">
+        <v>0.4006156547402197</v>
+      </c>
+      <c r="K6">
+        <v>-0.1557774185414674</v>
+      </c>
+      <c r="L6">
+        <v>-0.09697657503222559</v>
+      </c>
+      <c r="M6">
+        <v>0.01482151599632638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06626048455213972</v>
+        <v>-0.0710361935763472</v>
       </c>
       <c r="C7">
-        <v>0.05122953096556543</v>
+        <v>-0.07339658711177095</v>
       </c>
       <c r="D7">
-        <v>0.05109880606238879</v>
+        <v>0.007751016797111522</v>
       </c>
       <c r="E7">
-        <v>-0.04175010045518175</v>
+        <v>-0.04501339103143238</v>
       </c>
       <c r="F7">
-        <v>0.03214801905955531</v>
+        <v>-0.01909407903498195</v>
       </c>
       <c r="G7">
-        <v>-0.005495044194471733</v>
+        <v>-0.007772074911746091</v>
       </c>
       <c r="H7">
-        <v>0.01564304813762923</v>
+        <v>0.05127609919253969</v>
       </c>
       <c r="I7">
-        <v>-0.07234744048667714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.03342264712053191</v>
+      </c>
+      <c r="J7">
+        <v>-0.02371371708448259</v>
+      </c>
+      <c r="K7">
+        <v>0.01829057190917874</v>
+      </c>
+      <c r="L7">
+        <v>0.08772534723308721</v>
+      </c>
+      <c r="M7">
+        <v>-0.01031970769195469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02917392245398093</v>
+        <v>-0.03750483324877899</v>
       </c>
       <c r="C8">
-        <v>0.02486395425376605</v>
+        <v>-0.01179463771058985</v>
       </c>
       <c r="D8">
-        <v>0.03382371241354428</v>
+        <v>0.01977682874413374</v>
       </c>
       <c r="E8">
-        <v>-0.0578349494779436</v>
+        <v>-0.04759324778258466</v>
       </c>
       <c r="F8">
-        <v>-0.04360516313849981</v>
+        <v>-0.1022704067889723</v>
       </c>
       <c r="G8">
-        <v>-0.04422237440911788</v>
+        <v>0.006738805956121025</v>
       </c>
       <c r="H8">
-        <v>0.02341712800616646</v>
+        <v>0.02881523385401073</v>
       </c>
       <c r="I8">
-        <v>-0.03878586175017362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.007670804437985373</v>
+      </c>
+      <c r="J8">
+        <v>0.06243421969727703</v>
+      </c>
+      <c r="K8">
+        <v>0.03151736010072281</v>
+      </c>
+      <c r="L8">
+        <v>0.05582375647784121</v>
+      </c>
+      <c r="M8">
+        <v>0.03916899322422271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07313324726232828</v>
+        <v>-0.08465803434115413</v>
       </c>
       <c r="C9">
-        <v>0.0786614533281793</v>
+        <v>-0.06863978538442106</v>
       </c>
       <c r="D9">
-        <v>0.03399123788015197</v>
+        <v>0.005756388239329981</v>
       </c>
       <c r="E9">
-        <v>-0.03144661144315218</v>
+        <v>-0.03057435056321619</v>
       </c>
       <c r="F9">
-        <v>-0.01062546653729114</v>
+        <v>-0.1049293604911803</v>
       </c>
       <c r="G9">
-        <v>0.02805497039712376</v>
+        <v>0.002269635004109401</v>
       </c>
       <c r="H9">
-        <v>0.006727869779252695</v>
+        <v>0.05852388519357937</v>
       </c>
       <c r="I9">
-        <v>-0.04560872588615143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.03006854825232748</v>
+      </c>
+      <c r="J9">
+        <v>0.04076331739076489</v>
+      </c>
+      <c r="K9">
+        <v>0.007736948006817733</v>
+      </c>
+      <c r="L9">
+        <v>0.03449328232963066</v>
+      </c>
+      <c r="M9">
+        <v>0.0002528008776676818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06189042245735487</v>
+        <v>-0.1091462338173602</v>
       </c>
       <c r="C10">
-        <v>-0.1379322829226431</v>
+        <v>0.1705700857537028</v>
       </c>
       <c r="D10">
-        <v>0.05976423136782738</v>
+        <v>0.01030568204817717</v>
       </c>
       <c r="E10">
-        <v>-0.04257696882048503</v>
+        <v>-0.05181219129776799</v>
       </c>
       <c r="F10">
-        <v>0.03550359474990496</v>
+        <v>0.01575766687261285</v>
       </c>
       <c r="G10">
-        <v>-0.02217106698356543</v>
+        <v>0.009138646601939708</v>
       </c>
       <c r="H10">
-        <v>-0.04286008633564965</v>
+        <v>-3.632940238256055e-05</v>
       </c>
       <c r="I10">
-        <v>-0.05919864904076542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.03672728513661545</v>
+      </c>
+      <c r="J10">
+        <v>-0.06867742756728705</v>
+      </c>
+      <c r="K10">
+        <v>-0.01089540029145325</v>
+      </c>
+      <c r="L10">
+        <v>-0.005626060889897017</v>
+      </c>
+      <c r="M10">
+        <v>-0.07286393388359792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06555333224174791</v>
+        <v>-0.06736235050963839</v>
       </c>
       <c r="C11">
-        <v>0.08928848769123122</v>
+        <v>-0.07058010487907791</v>
       </c>
       <c r="D11">
-        <v>0.03194449010044229</v>
+        <v>-0.02922282876177337</v>
       </c>
       <c r="E11">
-        <v>-0.006929045073383234</v>
+        <v>-0.01480982541070938</v>
       </c>
       <c r="F11">
-        <v>-0.05941182062021843</v>
+        <v>-0.106115283641827</v>
       </c>
       <c r="G11">
-        <v>0.006743897083488055</v>
+        <v>-0.02247178423049605</v>
       </c>
       <c r="H11">
-        <v>0.056265792482752</v>
+        <v>0.04301754165305539</v>
       </c>
       <c r="I11">
-        <v>-0.08714018766477644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0472182805854235</v>
+      </c>
+      <c r="J11">
+        <v>-0.06883134191139008</v>
+      </c>
+      <c r="K11">
+        <v>0.07142968540206812</v>
+      </c>
+      <c r="L11">
+        <v>-0.01505566774801132</v>
+      </c>
+      <c r="M11">
+        <v>-0.07996151225163499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06039926741435269</v>
+        <v>-0.0728002366807726</v>
       </c>
       <c r="C12">
-        <v>0.05360067800177148</v>
+        <v>-0.06325516344337249</v>
       </c>
       <c r="D12">
-        <v>0.01383574393609895</v>
+        <v>-0.02862968622084353</v>
       </c>
       <c r="E12">
-        <v>-0.02237445873314947</v>
+        <v>-0.003557659348231221</v>
       </c>
       <c r="F12">
-        <v>-0.006120240485421607</v>
+        <v>-0.119269969020974</v>
       </c>
       <c r="G12">
-        <v>0.003454666507810994</v>
+        <v>-0.0261328399173112</v>
       </c>
       <c r="H12">
-        <v>0.05315795937239307</v>
+        <v>0.02814547322152993</v>
       </c>
       <c r="I12">
-        <v>-0.1049764132121855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.05290691072347112</v>
+      </c>
+      <c r="J12">
+        <v>-0.03000079054524133</v>
+      </c>
+      <c r="K12">
+        <v>0.09509910888209423</v>
+      </c>
+      <c r="L12">
+        <v>0.01503332291896998</v>
+      </c>
+      <c r="M12">
+        <v>-0.1088912552833861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05090198426950031</v>
+        <v>-0.04483431297406678</v>
       </c>
       <c r="C13">
-        <v>0.01618256245247645</v>
+        <v>-0.03181708506249272</v>
       </c>
       <c r="D13">
-        <v>-0.000384284522999644</v>
+        <v>0.02377052659957224</v>
       </c>
       <c r="E13">
-        <v>-0.01421158539142585</v>
+        <v>-0.0080848236757315</v>
       </c>
       <c r="F13">
-        <v>-0.02762839835152724</v>
+        <v>-0.03896532547545083</v>
       </c>
       <c r="G13">
-        <v>0.0482870583219394</v>
+        <v>-0.0203464038959603</v>
       </c>
       <c r="H13">
-        <v>0.01798181461506626</v>
+        <v>0.03202672064202467</v>
       </c>
       <c r="I13">
-        <v>-0.0605381416597373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.002608528596624984</v>
+      </c>
+      <c r="J13">
+        <v>0.02967079706288778</v>
+      </c>
+      <c r="K13">
+        <v>0.008224366796490948</v>
+      </c>
+      <c r="L13">
+        <v>0.06796949759068593</v>
+      </c>
+      <c r="M13">
+        <v>0.02439124314273709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.03995124411677033</v>
+        <v>-0.04492285421473096</v>
       </c>
       <c r="C14">
-        <v>0.02147123865721556</v>
+        <v>-0.02614395621016101</v>
       </c>
       <c r="D14">
-        <v>0.01869836835582196</v>
+        <v>-0.004443113125084656</v>
       </c>
       <c r="E14">
-        <v>0.006664129707023783</v>
+        <v>-0.01822340299462676</v>
       </c>
       <c r="F14">
-        <v>0.01029596617993611</v>
+        <v>-0.04294065587550863</v>
       </c>
       <c r="G14">
-        <v>0.006987923382725806</v>
+        <v>-0.02200649099579819</v>
       </c>
       <c r="H14">
-        <v>-0.0903767534797402</v>
+        <v>0.06590202808542073</v>
       </c>
       <c r="I14">
-        <v>-0.06191238478475259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.003951771250706066</v>
+      </c>
+      <c r="J14">
+        <v>0.04322790470857468</v>
+      </c>
+      <c r="K14">
+        <v>-0.04317208631094813</v>
+      </c>
+      <c r="L14">
+        <v>0.04374598582650902</v>
+      </c>
+      <c r="M14">
+        <v>0.03901622906825451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03865509141218179</v>
+        <v>-0.03058532183916126</v>
       </c>
       <c r="C15">
-        <v>-0.006953871915310188</v>
+        <v>-0.008152355407116027</v>
       </c>
       <c r="D15">
-        <v>-0.002661403396581548</v>
+        <v>0.06072211448379907</v>
       </c>
       <c r="E15">
-        <v>-0.0210173672762046</v>
+        <v>-0.005888193113158295</v>
       </c>
       <c r="F15">
-        <v>0.01308298864391486</v>
+        <v>-0.0031970482392476</v>
       </c>
       <c r="G15">
-        <v>0.0172471238382264</v>
+        <v>0.03566607607464255</v>
       </c>
       <c r="H15">
-        <v>-0.01235688617066949</v>
+        <v>0.03811296070874624</v>
       </c>
       <c r="I15">
-        <v>-0.02670444035944371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.02479502202539908</v>
+      </c>
+      <c r="J15">
+        <v>0.0304177701477747</v>
+      </c>
+      <c r="K15">
+        <v>-0.03975082527942841</v>
+      </c>
+      <c r="L15">
+        <v>0.05025746879811324</v>
+      </c>
+      <c r="M15">
+        <v>-0.007448239199466423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05053920408741223</v>
+        <v>-0.0713310891462767</v>
       </c>
       <c r="C16">
-        <v>0.08448308880026563</v>
+        <v>-0.07861110756123305</v>
       </c>
       <c r="D16">
-        <v>0.02506559190432683</v>
+        <v>-0.01920347191303175</v>
       </c>
       <c r="E16">
-        <v>-0.02725293289620603</v>
+        <v>-0.01453675422972504</v>
       </c>
       <c r="F16">
-        <v>-0.0353192394411025</v>
+        <v>-0.1085319426011197</v>
       </c>
       <c r="G16">
-        <v>0.02462473640891601</v>
+        <v>-0.03517481168981914</v>
       </c>
       <c r="H16">
-        <v>0.05003598150195834</v>
+        <v>0.04367251073377307</v>
       </c>
       <c r="I16">
-        <v>-0.1257907865875007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.05488331222556183</v>
+      </c>
+      <c r="J16">
+        <v>-0.04418481016750642</v>
+      </c>
+      <c r="K16">
+        <v>0.0854973368077981</v>
+      </c>
+      <c r="L16">
+        <v>0.01206966612995464</v>
+      </c>
+      <c r="M16">
+        <v>-0.06354240662595685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03973447993562069</v>
+        <v>-0.04379056683401658</v>
       </c>
       <c r="C20">
-        <v>0.04265343157457184</v>
+        <v>-0.03148307085974004</v>
       </c>
       <c r="D20">
-        <v>0.01176554573424085</v>
+        <v>0.02569701194329023</v>
       </c>
       <c r="E20">
-        <v>-0.01284203182722048</v>
+        <v>-0.01877272145920288</v>
       </c>
       <c r="F20">
-        <v>-0.01306987081265878</v>
+        <v>-0.05636262890260238</v>
       </c>
       <c r="G20">
-        <v>0.03739473319905601</v>
+        <v>-0.02735895861322611</v>
       </c>
       <c r="H20">
-        <v>0.008386993825076796</v>
+        <v>0.04358757313423028</v>
       </c>
       <c r="I20">
-        <v>-0.07930754562538506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.04557613491152869</v>
+      </c>
+      <c r="J20">
+        <v>0.04044684220583961</v>
+      </c>
+      <c r="K20">
+        <v>0.01192454042996647</v>
+      </c>
+      <c r="L20">
+        <v>0.0599211049409875</v>
+      </c>
+      <c r="M20">
+        <v>-0.01847818706014573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01418032287512486</v>
+        <v>-0.03001131028873992</v>
       </c>
       <c r="C21">
-        <v>0.01890255743517084</v>
+        <v>-0.02169030175263881</v>
       </c>
       <c r="D21">
-        <v>-0.0007214399233392612</v>
+        <v>0.01157766759178248</v>
       </c>
       <c r="E21">
-        <v>-0.07393021774268971</v>
+        <v>-0.01827774859774186</v>
       </c>
       <c r="F21">
-        <v>0.05776536054886428</v>
+        <v>-0.05569420295647617</v>
       </c>
       <c r="G21">
-        <v>-0.08607665673197576</v>
+        <v>0.0931639298333739</v>
       </c>
       <c r="H21">
-        <v>-0.02554133328941254</v>
+        <v>0.004432146164055872</v>
       </c>
       <c r="I21">
-        <v>0.02898250809566119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.07535924736458956</v>
+      </c>
+      <c r="J21">
+        <v>-0.001775098849906345</v>
+      </c>
+      <c r="K21">
+        <v>-0.04447690239586782</v>
+      </c>
+      <c r="L21">
+        <v>0.09800720122056021</v>
+      </c>
+      <c r="M21">
+        <v>0.01061930680670856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.008939846352651087</v>
+        <v>-0.03876409744258291</v>
       </c>
       <c r="C22">
-        <v>0.05223417227342251</v>
+        <v>-0.02966724689160766</v>
       </c>
       <c r="D22">
-        <v>-0.1395617793552131</v>
+        <v>0.6531711282021334</v>
       </c>
       <c r="E22">
-        <v>-0.4624371791105799</v>
+        <v>-0.04889293802611738</v>
       </c>
       <c r="F22">
-        <v>0.1805754836399886</v>
+        <v>0.08344842948907874</v>
       </c>
       <c r="G22">
-        <v>0.2336159977538173</v>
+        <v>-0.07158356011949178</v>
       </c>
       <c r="H22">
-        <v>0.2017732230329177</v>
+        <v>-0.0693244708294451</v>
       </c>
       <c r="I22">
-        <v>0.2465190631242256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1138000187946115</v>
+      </c>
+      <c r="J22">
+        <v>-0.06601158162556638</v>
+      </c>
+      <c r="K22">
+        <v>-0.03447961184765464</v>
+      </c>
+      <c r="L22">
+        <v>-0.03134160441259665</v>
+      </c>
+      <c r="M22">
+        <v>0.03008640220597619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.009927496590910823</v>
+        <v>-0.03947202588665737</v>
       </c>
       <c r="C23">
-        <v>0.05124373963117172</v>
+        <v>-0.03006016439984915</v>
       </c>
       <c r="D23">
-        <v>-0.1397145969937755</v>
+        <v>0.6548268376143878</v>
       </c>
       <c r="E23">
-        <v>-0.4636805380324839</v>
+        <v>-0.04932857974520465</v>
       </c>
       <c r="F23">
-        <v>0.1785794246622027</v>
+        <v>0.07881356799324878</v>
       </c>
       <c r="G23">
-        <v>0.229777669766805</v>
+        <v>-0.07145535580927952</v>
       </c>
       <c r="H23">
-        <v>0.1993905321283312</v>
+        <v>-0.07110451442414624</v>
       </c>
       <c r="I23">
-        <v>0.2459681634643049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1115166964198917</v>
+      </c>
+      <c r="J23">
+        <v>-0.06274032004346194</v>
+      </c>
+      <c r="K23">
+        <v>-0.03590780630309434</v>
+      </c>
+      <c r="L23">
+        <v>-0.0348934751419254</v>
+      </c>
+      <c r="M23">
+        <v>0.03161014862178031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06972346284733587</v>
+        <v>-0.07688985889550902</v>
       </c>
       <c r="C24">
-        <v>0.08031479883182339</v>
+        <v>-0.07610112237680572</v>
       </c>
       <c r="D24">
-        <v>0.03486766401478097</v>
+        <v>-0.0164371903216962</v>
       </c>
       <c r="E24">
-        <v>-0.03926851375301002</v>
+        <v>-0.017082075390802</v>
       </c>
       <c r="F24">
-        <v>-0.03793629836674145</v>
+        <v>-0.1105286434994694</v>
       </c>
       <c r="G24">
-        <v>0.006535114685633726</v>
+        <v>-0.0213780389470696</v>
       </c>
       <c r="H24">
-        <v>0.03425725025159507</v>
+        <v>0.03085306321627436</v>
       </c>
       <c r="I24">
-        <v>-0.1009190555482413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.05316158312121829</v>
+      </c>
+      <c r="J24">
+        <v>-0.03575440238756046</v>
+      </c>
+      <c r="K24">
+        <v>0.07183097897836077</v>
+      </c>
+      <c r="L24">
+        <v>-0.0176466936326503</v>
+      </c>
+      <c r="M24">
+        <v>-0.07873764190183605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06392795220420414</v>
+        <v>-0.07391644141120249</v>
       </c>
       <c r="C25">
-        <v>0.04434832813150924</v>
+        <v>-0.05002825231706848</v>
       </c>
       <c r="D25">
-        <v>0.03091797013686509</v>
+        <v>-0.03027273170376934</v>
       </c>
       <c r="E25">
-        <v>-0.04775466586653698</v>
+        <v>-0.01436765431624458</v>
       </c>
       <c r="F25">
-        <v>-0.04780319449424698</v>
+        <v>-0.1168809082595643</v>
       </c>
       <c r="G25">
-        <v>0.01873201744812044</v>
+        <v>-0.03928150206337287</v>
       </c>
       <c r="H25">
-        <v>0.0037319143291991</v>
+        <v>0.04670777087724403</v>
       </c>
       <c r="I25">
-        <v>-0.08458558674205342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0542471082053894</v>
+      </c>
+      <c r="J25">
+        <v>-0.03234637970379126</v>
+      </c>
+      <c r="K25">
+        <v>0.08305931535942507</v>
+      </c>
+      <c r="L25">
+        <v>-0.0366898971305134</v>
+      </c>
+      <c r="M25">
+        <v>-0.07897679229216366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03847267087133026</v>
+        <v>-0.04163023847985195</v>
       </c>
       <c r="C26">
-        <v>0.03255696257449479</v>
+        <v>-0.02244281431523206</v>
       </c>
       <c r="D26">
-        <v>0.03801327475634126</v>
+        <v>0.01230023493268978</v>
       </c>
       <c r="E26">
-        <v>0.002755104298953517</v>
+        <v>-0.003082566126945405</v>
       </c>
       <c r="F26">
-        <v>0.0123580281302466</v>
+        <v>-0.03431067250561008</v>
       </c>
       <c r="G26">
-        <v>0.02837465208399146</v>
+        <v>-0.006766712442679929</v>
       </c>
       <c r="H26">
-        <v>0.005960575200966638</v>
+        <v>0.04025212904215442</v>
       </c>
       <c r="I26">
-        <v>-0.07725648878840465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.02496459593205758</v>
+      </c>
+      <c r="J26">
+        <v>0.007090953759684038</v>
+      </c>
+      <c r="K26">
+        <v>-0.07698911271754824</v>
+      </c>
+      <c r="L26">
+        <v>0.1375357612629571</v>
+      </c>
+      <c r="M26">
+        <v>0.03361585132832071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1213380087500206</v>
+        <v>-0.1448949450946426</v>
       </c>
       <c r="C28">
-        <v>-0.2973331360228038</v>
+        <v>0.287813617154258</v>
       </c>
       <c r="D28">
-        <v>0.0382204230385044</v>
+        <v>-0.006952601371564932</v>
       </c>
       <c r="E28">
-        <v>-0.000468273621576728</v>
+        <v>-0.02803629980052911</v>
       </c>
       <c r="F28">
-        <v>0.05235380962536278</v>
+        <v>0.001923150898516818</v>
       </c>
       <c r="G28">
-        <v>-0.02988416607032683</v>
+        <v>0.0148553100514611</v>
       </c>
       <c r="H28">
-        <v>0.04402550799115003</v>
+        <v>-0.01645364379938235</v>
       </c>
       <c r="I28">
-        <v>-0.009064740121980563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.007885019956745211</v>
+      </c>
+      <c r="J28">
+        <v>0.006454004404487939</v>
+      </c>
+      <c r="K28">
+        <v>0.004569112741251298</v>
+      </c>
+      <c r="L28">
+        <v>0.04376998112289009</v>
+      </c>
+      <c r="M28">
+        <v>0.03231967378385658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05071552455467179</v>
+        <v>-0.04476947121620812</v>
       </c>
       <c r="C29">
-        <v>0.0159054531475891</v>
+        <v>-0.02326328867819555</v>
       </c>
       <c r="D29">
-        <v>0.009274318391769934</v>
+        <v>0.003780263778338445</v>
       </c>
       <c r="E29">
-        <v>-0.02216516784699315</v>
+        <v>-0.01923141379766629</v>
       </c>
       <c r="F29">
-        <v>0.001676510918329862</v>
+        <v>-0.04560208103556621</v>
       </c>
       <c r="G29">
-        <v>0.01545326278365211</v>
+        <v>-0.03700793147886373</v>
       </c>
       <c r="H29">
-        <v>-0.03111360823360636</v>
+        <v>0.05094035865135337</v>
       </c>
       <c r="I29">
-        <v>-0.01790898420285495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.01212874482447248</v>
+      </c>
+      <c r="J29">
+        <v>0.02532061249721743</v>
+      </c>
+      <c r="K29">
+        <v>-0.04059566693893497</v>
+      </c>
+      <c r="L29">
+        <v>0.03295772036809688</v>
+      </c>
+      <c r="M29">
+        <v>0.02958394811699491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.12482598240471</v>
+        <v>-0.09826876624354897</v>
       </c>
       <c r="C30">
-        <v>0.07999661921854495</v>
+        <v>-0.0665952120680347</v>
       </c>
       <c r="D30">
-        <v>0.05954267201421749</v>
+        <v>0.003664469855412987</v>
       </c>
       <c r="E30">
-        <v>-0.06401429971668501</v>
+        <v>-0.02844977571049676</v>
       </c>
       <c r="F30">
-        <v>0.01789723020577708</v>
+        <v>-0.1800783018991129</v>
       </c>
       <c r="G30">
-        <v>-0.007528063715212474</v>
+        <v>-0.05760299568800175</v>
       </c>
       <c r="H30">
-        <v>0.03706862557614395</v>
+        <v>0.001674173147973531</v>
       </c>
       <c r="I30">
-        <v>-0.05905584722012405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2804588647870247</v>
+      </c>
+      <c r="J30">
+        <v>0.09600309625769898</v>
+      </c>
+      <c r="K30">
+        <v>0.03017838303477269</v>
+      </c>
+      <c r="L30">
+        <v>0.1730103346409683</v>
+      </c>
+      <c r="M30">
+        <v>0.1964199558953154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04631768451272913</v>
+        <v>-0.03483567183324719</v>
       </c>
       <c r="C31">
-        <v>0.02149051244127369</v>
+        <v>-0.04469216712255663</v>
       </c>
       <c r="D31">
-        <v>-0.006753308978139793</v>
+        <v>0.007693244178012598</v>
       </c>
       <c r="E31">
-        <v>0.01089326766280567</v>
+        <v>0.009543006999080053</v>
       </c>
       <c r="F31">
-        <v>0.01863270784669694</v>
+        <v>-0.01406499578031653</v>
       </c>
       <c r="G31">
-        <v>0.04515043015926382</v>
+        <v>-0.02859070522974593</v>
       </c>
       <c r="H31">
-        <v>0.00288327448411468</v>
+        <v>0.04359376030131185</v>
       </c>
       <c r="I31">
-        <v>-0.02026712573479215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.02190470597137455</v>
+      </c>
+      <c r="J31">
+        <v>0.02283094026652106</v>
+      </c>
+      <c r="K31">
+        <v>0.01320039979629159</v>
+      </c>
+      <c r="L31">
+        <v>0.0177185977416268</v>
+      </c>
+      <c r="M31">
+        <v>0.006580738270347891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.01796471402787921</v>
+        <v>-0.04452982386292963</v>
       </c>
       <c r="C32">
-        <v>-0.00302732732663544</v>
+        <v>0.003736639547607009</v>
       </c>
       <c r="D32">
-        <v>-0.0332630712353101</v>
+        <v>-0.002955432437312967</v>
       </c>
       <c r="E32">
-        <v>-0.07983252583724074</v>
+        <v>-0.0008263360279612068</v>
       </c>
       <c r="F32">
-        <v>-0.04170845892976939</v>
+        <v>-0.07625237571987013</v>
       </c>
       <c r="G32">
-        <v>0.0147053554726678</v>
+        <v>0.03139646705072199</v>
       </c>
       <c r="H32">
-        <v>0.05847209453191771</v>
+        <v>0.04336288949367974</v>
       </c>
       <c r="I32">
-        <v>-0.04631317425396772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.07050376528382067</v>
+      </c>
+      <c r="J32">
+        <v>-0.04003934577589906</v>
+      </c>
+      <c r="K32">
+        <v>0.01235408859454169</v>
+      </c>
+      <c r="L32">
+        <v>0.0473254817475384</v>
+      </c>
+      <c r="M32">
+        <v>0.1271308161922347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.0993388397085798</v>
+        <v>-0.09781108949492967</v>
       </c>
       <c r="C33">
-        <v>0.05815327173047097</v>
+        <v>-0.06649968013339255</v>
       </c>
       <c r="D33">
-        <v>-0.004265785863433754</v>
+        <v>-0.007049493708307591</v>
       </c>
       <c r="E33">
-        <v>-0.0006818837186466793</v>
+        <v>0.01852429419736267</v>
       </c>
       <c r="F33">
-        <v>-0.02293340419069134</v>
+        <v>-0.06590860839386159</v>
       </c>
       <c r="G33">
-        <v>0.04634127570311559</v>
+        <v>-0.03265613960028845</v>
       </c>
       <c r="H33">
-        <v>0.02655010385643761</v>
+        <v>0.05459021617223635</v>
       </c>
       <c r="I33">
-        <v>-0.0530583845235951</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.02967389221078349</v>
+      </c>
+      <c r="J33">
+        <v>0.01045103371868156</v>
+      </c>
+      <c r="K33">
+        <v>-0.03244499407826214</v>
+      </c>
+      <c r="L33">
+        <v>0.01105642527863062</v>
+      </c>
+      <c r="M33">
+        <v>-0.009242006169604876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05231063536918488</v>
+        <v>-0.06348943544634786</v>
       </c>
       <c r="C34">
-        <v>0.08201118428032046</v>
+        <v>-0.06353818833409357</v>
       </c>
       <c r="D34">
-        <v>0.01877325154097494</v>
+        <v>-0.02539350090300861</v>
       </c>
       <c r="E34">
-        <v>-0.03902485636525442</v>
+        <v>-0.01148674199382879</v>
       </c>
       <c r="F34">
-        <v>-0.02668498024782323</v>
+        <v>-0.09800775186360297</v>
       </c>
       <c r="G34">
-        <v>0.00946581352281933</v>
+        <v>-0.02505287517667508</v>
       </c>
       <c r="H34">
-        <v>0.03081645561658436</v>
+        <v>0.0515112475636614</v>
       </c>
       <c r="I34">
-        <v>-0.09646636825080342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.03753614446042122</v>
+      </c>
+      <c r="J34">
+        <v>-0.02769287280703325</v>
+      </c>
+      <c r="K34">
+        <v>0.05817720516174768</v>
+      </c>
+      <c r="L34">
+        <v>-0.007897538928337517</v>
+      </c>
+      <c r="M34">
+        <v>-0.1021046666870017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04018213816414443</v>
+        <v>-0.02588570257976373</v>
       </c>
       <c r="C35">
-        <v>0.03597645917469936</v>
+        <v>-0.02425675361139576</v>
       </c>
       <c r="D35">
-        <v>0.007054213772050501</v>
+        <v>0.002588360114201916</v>
       </c>
       <c r="E35">
-        <v>-0.009439311672518609</v>
+        <v>0.00261797364791319</v>
       </c>
       <c r="F35">
-        <v>-0.00793580003751429</v>
+        <v>-0.01784382696021099</v>
       </c>
       <c r="G35">
-        <v>0.02334523532836635</v>
+        <v>-0.02324498023172896</v>
       </c>
       <c r="H35">
-        <v>0.008789298378829909</v>
+        <v>0.03837054404932772</v>
       </c>
       <c r="I35">
-        <v>-0.06194168238450536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.05019651066946337</v>
+      </c>
+      <c r="J35">
+        <v>-0.01299732114699904</v>
+      </c>
+      <c r="K35">
+        <v>0.01960157262387831</v>
+      </c>
+      <c r="L35">
+        <v>0.05582168944135223</v>
+      </c>
+      <c r="M35">
+        <v>0.01799302424790111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02843152440471871</v>
+        <v>-0.0291408948099965</v>
       </c>
       <c r="C36">
-        <v>0.0220308920291659</v>
+        <v>-0.02067498816039119</v>
       </c>
       <c r="D36">
-        <v>0.02448948153669528</v>
+        <v>0.01506466087960591</v>
       </c>
       <c r="E36">
-        <v>-0.01711986098018737</v>
+        <v>-0.01364665701348582</v>
       </c>
       <c r="F36">
-        <v>-0.009867356698080525</v>
+        <v>-0.06182361077934839</v>
       </c>
       <c r="G36">
-        <v>0.03321115271260491</v>
+        <v>-0.01488620393231425</v>
       </c>
       <c r="H36">
-        <v>-0.01670944016210241</v>
+        <v>0.04467270248514036</v>
       </c>
       <c r="I36">
-        <v>-0.08114863581502108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0319192621506347</v>
+      </c>
+      <c r="J36">
+        <v>0.03284459827698905</v>
+      </c>
+      <c r="K36">
+        <v>-0.01832366352078522</v>
+      </c>
+      <c r="L36">
+        <v>0.04114687189322047</v>
+      </c>
+      <c r="M36">
+        <v>-0.02122880017379831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04089484479736431</v>
+        <v>-0.03049024612397482</v>
       </c>
       <c r="C38">
-        <v>0.03086276202743417</v>
+        <v>-0.04750983303232237</v>
       </c>
       <c r="D38">
-        <v>-0.02601908076363603</v>
+        <v>0.02399279115559845</v>
       </c>
       <c r="E38">
-        <v>-0.034543853217353</v>
+        <v>-0.001260907352191122</v>
       </c>
       <c r="F38">
-        <v>-0.006582017928242126</v>
+        <v>0.04537312605177746</v>
       </c>
       <c r="G38">
-        <v>0.005778251071601315</v>
+        <v>-0.04681469740290507</v>
       </c>
       <c r="H38">
-        <v>0.04943604142893473</v>
+        <v>-0.0427592468295577</v>
       </c>
       <c r="I38">
-        <v>-0.03756252345393896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.007642417813435809</v>
+      </c>
+      <c r="J38">
+        <v>-0.06125529303020135</v>
+      </c>
+      <c r="K38">
+        <v>-0.1030243293795431</v>
+      </c>
+      <c r="L38">
+        <v>0.06466848225456467</v>
+      </c>
+      <c r="M38">
+        <v>0.101437407412693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.0933279337072577</v>
+        <v>-0.09962472663259417</v>
       </c>
       <c r="C39">
-        <v>0.1032607416628147</v>
+        <v>-0.09061644013618124</v>
       </c>
       <c r="D39">
-        <v>0.009156417782641544</v>
+        <v>-0.08256193294355887</v>
       </c>
       <c r="E39">
-        <v>-0.02632128603056342</v>
+        <v>0.01545583790612224</v>
       </c>
       <c r="F39">
-        <v>-0.04344423731446761</v>
+        <v>-0.1536568548482043</v>
       </c>
       <c r="G39">
-        <v>-0.02477936938775577</v>
+        <v>-0.09728601050024106</v>
       </c>
       <c r="H39">
-        <v>0.1092957956760345</v>
+        <v>-0.003877039301086412</v>
       </c>
       <c r="I39">
-        <v>-0.1550083964527387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1349416700974792</v>
+      </c>
+      <c r="J39">
+        <v>-0.08473470888873638</v>
+      </c>
+      <c r="K39">
+        <v>0.1933363473846337</v>
+      </c>
+      <c r="L39">
+        <v>0.02616597964830993</v>
+      </c>
+      <c r="M39">
+        <v>0.05817488830307031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05404175588794018</v>
+        <v>-0.03466445738321233</v>
       </c>
       <c r="C40">
-        <v>0.04742150568521218</v>
+        <v>-0.05830423072486284</v>
       </c>
       <c r="D40">
-        <v>-0.0494604065061052</v>
+        <v>0.05198962176499296</v>
       </c>
       <c r="E40">
-        <v>-0.1413203249339821</v>
+        <v>0.005477840253308808</v>
       </c>
       <c r="F40">
-        <v>-0.03933523228927106</v>
+        <v>-0.1200858296845255</v>
       </c>
       <c r="G40">
-        <v>0.03732094259428037</v>
+        <v>0.0629909441050648</v>
       </c>
       <c r="H40">
-        <v>0.1149481405267132</v>
+        <v>0.01984845015988432</v>
       </c>
       <c r="I40">
-        <v>-0.240548514942268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.03574211617752972</v>
+      </c>
+      <c r="J40">
+        <v>-0.09004349240833801</v>
+      </c>
+      <c r="K40">
+        <v>-0.07170877068431158</v>
+      </c>
+      <c r="L40">
+        <v>0.08708311393538593</v>
+      </c>
+      <c r="M40">
+        <v>0.008816996243217592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.0444899376428068</v>
+        <v>-0.03537825862643581</v>
       </c>
       <c r="C41">
-        <v>0.05408649035026378</v>
+        <v>-0.03667593922334918</v>
       </c>
       <c r="D41">
-        <v>0.009700572979123929</v>
+        <v>-0.01832757574113113</v>
       </c>
       <c r="E41">
-        <v>0.005484877259006237</v>
+        <v>0.001490926177349266</v>
       </c>
       <c r="F41">
-        <v>-0.01841268222139231</v>
+        <v>-0.01762805059554023</v>
       </c>
       <c r="G41">
-        <v>0.02034188997565863</v>
+        <v>-0.02878057491774401</v>
       </c>
       <c r="H41">
-        <v>0.02894222029274794</v>
+        <v>0.009068462628472671</v>
       </c>
       <c r="I41">
-        <v>-0.06257119635205503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.004806750249121614</v>
+      </c>
+      <c r="J41">
+        <v>-0.01760405799121542</v>
+      </c>
+      <c r="K41">
+        <v>-0.009285642649749608</v>
+      </c>
+      <c r="L41">
+        <v>0.0451838887110018</v>
+      </c>
+      <c r="M41">
+        <v>-0.0299347149886057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05579513266041625</v>
+        <v>-0.05001060323269987</v>
       </c>
       <c r="C43">
-        <v>0.04545055381707281</v>
+        <v>-0.04687615130482146</v>
       </c>
       <c r="D43">
-        <v>0.02624131258353815</v>
+        <v>0.01328209252777768</v>
       </c>
       <c r="E43">
-        <v>-0.01773056625413321</v>
+        <v>-0.01262271298421908</v>
       </c>
       <c r="F43">
-        <v>0.01068963434533088</v>
+        <v>-0.01217635611558609</v>
       </c>
       <c r="G43">
-        <v>0.02595971646681526</v>
+        <v>-0.06189924163951645</v>
       </c>
       <c r="H43">
-        <v>0.02506890535907005</v>
+        <v>-0.0005154824354421285</v>
       </c>
       <c r="I43">
-        <v>-0.03399166315151263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.002297553875749973</v>
+      </c>
+      <c r="J43">
+        <v>-0.00656022706500597</v>
+      </c>
+      <c r="K43">
+        <v>0.01251499901469777</v>
+      </c>
+      <c r="L43">
+        <v>0.03026458714085708</v>
+      </c>
+      <c r="M43">
+        <v>-0.01156610200046468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05437496405947162</v>
+        <v>-0.08409244057912821</v>
       </c>
       <c r="C44">
-        <v>0.02932361574294444</v>
+        <v>-0.06096491871495714</v>
       </c>
       <c r="D44">
-        <v>0.06688501092684701</v>
+        <v>0.07001538326929115</v>
       </c>
       <c r="E44">
-        <v>-0.128007083946604</v>
+        <v>-0.09609263943641491</v>
       </c>
       <c r="F44">
-        <v>-0.04959387581193182</v>
+        <v>-0.157992776429195</v>
       </c>
       <c r="G44">
-        <v>0.01231223193165811</v>
+        <v>-0.01507735648564896</v>
       </c>
       <c r="H44">
-        <v>0.0265021076564847</v>
+        <v>0.07806731853533404</v>
       </c>
       <c r="I44">
-        <v>-0.1257267056832026</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.05414331199551064</v>
+      </c>
+      <c r="J44">
+        <v>-0.05250894763385583</v>
+      </c>
+      <c r="K44">
+        <v>0.001340221216569089</v>
+      </c>
+      <c r="L44">
+        <v>0.04878507413163644</v>
+      </c>
+      <c r="M44">
+        <v>0.04926872879450352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01917334123807206</v>
+        <v>-0.03429264040142607</v>
       </c>
       <c r="C46">
-        <v>0.04091942964033191</v>
+        <v>-0.03834899930482225</v>
       </c>
       <c r="D46">
-        <v>0.01189495650096458</v>
+        <v>0.04899108019347922</v>
       </c>
       <c r="E46">
-        <v>-0.04797927939591265</v>
+        <v>-0.03576700799267891</v>
       </c>
       <c r="F46">
-        <v>-0.005295860329633449</v>
+        <v>-0.02236874067457962</v>
       </c>
       <c r="G46">
-        <v>0.002305133694637725</v>
+        <v>0.007319029688409207</v>
       </c>
       <c r="H46">
-        <v>0.00400445834488058</v>
+        <v>0.06676997192964267</v>
       </c>
       <c r="I46">
-        <v>-0.04874364581019794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.001660218416149104</v>
+      </c>
+      <c r="J46">
+        <v>0.02209392076042959</v>
+      </c>
+      <c r="K46">
+        <v>-0.06082794793104506</v>
+      </c>
+      <c r="L46">
+        <v>0.06424591639480545</v>
+      </c>
+      <c r="M46">
+        <v>-0.0005123587302357741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02725700544270662</v>
+        <v>-0.04657424487672184</v>
       </c>
       <c r="C47">
-        <v>0.001129586243955368</v>
+        <v>-0.0278794120744889</v>
       </c>
       <c r="D47">
-        <v>-0.01488653718072885</v>
+        <v>0.02208987042244437</v>
       </c>
       <c r="E47">
-        <v>-0.06532164342870592</v>
+        <v>-0.006702090455266742</v>
       </c>
       <c r="F47">
-        <v>-0.004253766436798419</v>
+        <v>-0.03151485522056708</v>
       </c>
       <c r="G47">
-        <v>0.04123768701802968</v>
+        <v>-0.02792359002647912</v>
       </c>
       <c r="H47">
-        <v>-0.03176286098048737</v>
+        <v>0.0277070068638389</v>
       </c>
       <c r="I47">
-        <v>-0.02915699581367661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03636815419246823</v>
+      </c>
+      <c r="J47">
+        <v>0.01656168267752756</v>
+      </c>
+      <c r="K47">
+        <v>-0.0352138361326075</v>
+      </c>
+      <c r="L47">
+        <v>0.01597964708987027</v>
+      </c>
+      <c r="M47">
+        <v>-0.02857483250305845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.0305965182911383</v>
+        <v>-0.04192290938578561</v>
       </c>
       <c r="C48">
-        <v>0.02675743913972824</v>
+        <v>-0.02054697377876559</v>
       </c>
       <c r="D48">
-        <v>0.003135249617107615</v>
+        <v>0.01486037042257559</v>
       </c>
       <c r="E48">
-        <v>-0.04113258197428597</v>
+        <v>-0.001957987014216932</v>
       </c>
       <c r="F48">
-        <v>0.006818571326577674</v>
+        <v>-0.06728811345151499</v>
       </c>
       <c r="G48">
-        <v>0.0506074497087779</v>
+        <v>0.01976722761356246</v>
       </c>
       <c r="H48">
-        <v>0.01250346751930122</v>
+        <v>0.05657778792048994</v>
       </c>
       <c r="I48">
-        <v>-0.04992351940438827</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03128822840169757</v>
+      </c>
+      <c r="J48">
+        <v>0.02261296615766472</v>
+      </c>
+      <c r="K48">
+        <v>0.01606881105712897</v>
+      </c>
+      <c r="L48">
+        <v>0.04823713676920583</v>
+      </c>
+      <c r="M48">
+        <v>-0.01917389600810298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1939428808290801</v>
+        <v>-0.2246364562177551</v>
       </c>
       <c r="C49">
-        <v>0.1251028171881698</v>
+        <v>-0.08463376463544718</v>
       </c>
       <c r="D49">
-        <v>0.0775818598300069</v>
+        <v>-0.06193067745889439</v>
       </c>
       <c r="E49">
-        <v>0.06834432641012915</v>
+        <v>-0.02923446942195317</v>
       </c>
       <c r="F49">
-        <v>0.1368659994292358</v>
+        <v>0.2314786605792144</v>
       </c>
       <c r="G49">
-        <v>-0.1412347230987502</v>
+        <v>0.1506230792311396</v>
       </c>
       <c r="H49">
-        <v>-0.01051845020397407</v>
+        <v>-0.03659026267372619</v>
       </c>
       <c r="I49">
-        <v>0.00190819066638282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1192397358105359</v>
+      </c>
+      <c r="J49">
+        <v>-0.1312502585206932</v>
+      </c>
+      <c r="K49">
+        <v>0.06863704883518161</v>
+      </c>
+      <c r="L49">
+        <v>-0.1537526221228135</v>
+      </c>
+      <c r="M49">
+        <v>-0.1068992537143355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.0547715609723127</v>
+        <v>-0.0426864697026412</v>
       </c>
       <c r="C50">
-        <v>0.03014167166259187</v>
+        <v>-0.04192432930545611</v>
       </c>
       <c r="D50">
-        <v>0.004115596713561345</v>
+        <v>0.004391407582875153</v>
       </c>
       <c r="E50">
-        <v>-0.01584276358458263</v>
+        <v>0.008904588089738985</v>
       </c>
       <c r="F50">
-        <v>-0.004468291116710415</v>
+        <v>-0.03966640844432697</v>
       </c>
       <c r="G50">
-        <v>0.07164037769835362</v>
+        <v>-0.04088704954492945</v>
       </c>
       <c r="H50">
-        <v>-0.03098856018427821</v>
+        <v>0.03977316945016867</v>
       </c>
       <c r="I50">
-        <v>-0.0008890112475193927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.0007122533379621269</v>
+      </c>
+      <c r="J50">
+        <v>0.04122435467791248</v>
+      </c>
+      <c r="K50">
+        <v>-0.03437058216243345</v>
+      </c>
+      <c r="L50">
+        <v>0.02266694355090265</v>
+      </c>
+      <c r="M50">
+        <v>0.03564310777876368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02439653406175171</v>
+        <v>-0.02966308832984475</v>
       </c>
       <c r="C51">
-        <v>0.01442602796950313</v>
+        <v>-0.005471063124004789</v>
       </c>
       <c r="D51">
-        <v>-0.008989957071640362</v>
+        <v>-0.0004232803142418337</v>
       </c>
       <c r="E51">
-        <v>-0.01110988812331248</v>
+        <v>-0.01657278914389313</v>
       </c>
       <c r="F51">
-        <v>-0.004826851565398227</v>
+        <v>0.01879543845270905</v>
       </c>
       <c r="G51">
-        <v>-0.03226223992831272</v>
+        <v>-0.003408021714783047</v>
       </c>
       <c r="H51">
-        <v>0.009085061644484693</v>
+        <v>-0.02391647974885756</v>
       </c>
       <c r="I51">
-        <v>0.0009748196507101473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.009412359909204263</v>
+      </c>
+      <c r="J51">
+        <v>-0.03325537627095619</v>
+      </c>
+      <c r="K51">
+        <v>0.05657842460133521</v>
+      </c>
+      <c r="L51">
+        <v>-0.06250252137859857</v>
+      </c>
+      <c r="M51">
+        <v>8.41763156469981e-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01423960417409545</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.004124477159923252</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01664305093199106</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.005255442321258699</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.004528369284417049</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.003365853645745221</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.007979312531283695</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.002316542684959004</v>
+      </c>
+      <c r="J52">
+        <v>-0.001139300254294722</v>
+      </c>
+      <c r="K52">
+        <v>0.01785433958585834</v>
+      </c>
+      <c r="L52">
+        <v>0.005932355188430982</v>
+      </c>
+      <c r="M52">
+        <v>0.03706586722200933</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.167233658304263</v>
+        <v>-0.1539955317154016</v>
       </c>
       <c r="C53">
-        <v>0.01871868976064384</v>
+        <v>-0.04633561137373911</v>
       </c>
       <c r="D53">
-        <v>0.02173080966707833</v>
+        <v>-0.01496951385582833</v>
       </c>
       <c r="E53">
-        <v>0.07991485183399188</v>
+        <v>0.008335668338447014</v>
       </c>
       <c r="F53">
-        <v>-0.1944677566878202</v>
+        <v>0.07146596390692128</v>
       </c>
       <c r="G53">
-        <v>0.1763008320075272</v>
+        <v>-0.2101618037060853</v>
       </c>
       <c r="H53">
-        <v>0.001856064457066821</v>
+        <v>0.03467369986307429</v>
       </c>
       <c r="I53">
-        <v>0.07671151645496976</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1197205202223479</v>
+      </c>
+      <c r="J53">
+        <v>0.02432964770490716</v>
+      </c>
+      <c r="K53">
+        <v>-0.1001256870250171</v>
+      </c>
+      <c r="L53">
+        <v>-0.06293072828454607</v>
+      </c>
+      <c r="M53">
+        <v>0.0959048081209353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05003636160326377</v>
+        <v>-0.0599328952479535</v>
       </c>
       <c r="C54">
-        <v>0.03563351520593043</v>
+        <v>-0.03324018425356654</v>
       </c>
       <c r="D54">
-        <v>0.03152930217176454</v>
+        <v>0.02337908261919835</v>
       </c>
       <c r="E54">
-        <v>-0.03756488499699209</v>
+        <v>-0.0264804411728498</v>
       </c>
       <c r="F54">
-        <v>-0.01433172039233601</v>
+        <v>-0.1029040788855301</v>
       </c>
       <c r="G54">
-        <v>0.03496844891455759</v>
+        <v>0.0146942814664809</v>
       </c>
       <c r="H54">
-        <v>0.006104750320768684</v>
+        <v>0.05567518095106911</v>
       </c>
       <c r="I54">
-        <v>-0.0560211327495104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.02260794461007592</v>
+      </c>
+      <c r="J54">
+        <v>0.0738713434469981</v>
+      </c>
+      <c r="K54">
+        <v>-0.04020450349589966</v>
+      </c>
+      <c r="L54">
+        <v>0.1062441451630907</v>
+      </c>
+      <c r="M54">
+        <v>-0.007463299452188142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09129247883806607</v>
+        <v>-0.08615692958856279</v>
       </c>
       <c r="C55">
-        <v>0.005793930672039449</v>
+        <v>-0.0368784149185189</v>
       </c>
       <c r="D55">
-        <v>0.01749584380729364</v>
+        <v>-0.0263514007873066</v>
       </c>
       <c r="E55">
-        <v>0.01192586567315172</v>
+        <v>-0.004113023612607363</v>
       </c>
       <c r="F55">
-        <v>-0.1669357930611504</v>
+        <v>-0.004282942161500614</v>
       </c>
       <c r="G55">
-        <v>0.1641164261235436</v>
+        <v>-0.1444606334137079</v>
       </c>
       <c r="H55">
-        <v>-0.02212735896546282</v>
+        <v>0.04440135198442151</v>
       </c>
       <c r="I55">
-        <v>0.05883715198368426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.07969404756752028</v>
+      </c>
+      <c r="J55">
+        <v>0.01726836731217767</v>
+      </c>
+      <c r="K55">
+        <v>-0.06622881724419589</v>
+      </c>
+      <c r="L55">
+        <v>-0.04902854078430868</v>
+      </c>
+      <c r="M55">
+        <v>0.03096895274699378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1658704336126653</v>
+        <v>-0.1502297693585153</v>
       </c>
       <c r="C56">
-        <v>0.01979813992815411</v>
+        <v>-0.06967208929098548</v>
       </c>
       <c r="D56">
-        <v>0.0440708068697069</v>
+        <v>-0.03248353404861015</v>
       </c>
       <c r="E56">
-        <v>0.07305614216375264</v>
+        <v>-0.008958607299048337</v>
       </c>
       <c r="F56">
-        <v>-0.1634060753972283</v>
+        <v>0.03857721570328415</v>
       </c>
       <c r="G56">
-        <v>0.1711770558820896</v>
+        <v>-0.2069653513589316</v>
       </c>
       <c r="H56">
-        <v>-0.003991311928275834</v>
+        <v>0.01227763993854285</v>
       </c>
       <c r="I56">
-        <v>0.1226744125204843</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.1312081725854123</v>
+      </c>
+      <c r="J56">
+        <v>0.004626823729846161</v>
+      </c>
+      <c r="K56">
+        <v>-0.1064000935573588</v>
+      </c>
+      <c r="L56">
+        <v>-0.04850932946171663</v>
+      </c>
+      <c r="M56">
+        <v>0.05157252065706852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04079371922647659</v>
+        <v>-0.03718213685425289</v>
       </c>
       <c r="C58">
-        <v>0.04897593240517264</v>
+        <v>-0.03332348230998317</v>
       </c>
       <c r="D58">
-        <v>0.002374010412534012</v>
+        <v>0.0855009409698545</v>
       </c>
       <c r="E58">
-        <v>-0.319533902358517</v>
+        <v>-0.02424580036918897</v>
       </c>
       <c r="F58">
-        <v>0.2141584186488798</v>
+        <v>-0.03704431403636318</v>
       </c>
       <c r="G58">
-        <v>0.05591628391495287</v>
+        <v>0.04159239729663676</v>
       </c>
       <c r="H58">
-        <v>-0.1644056733777767</v>
+        <v>0.04990738790362131</v>
       </c>
       <c r="I58">
-        <v>-0.2661849554185613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2242055122428854</v>
+      </c>
+      <c r="J58">
+        <v>0.1455012485060892</v>
+      </c>
+      <c r="K58">
+        <v>0.3257353731003437</v>
+      </c>
+      <c r="L58">
+        <v>0.008885461334651183</v>
+      </c>
+      <c r="M58">
+        <v>-0.1359633029301099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2501368927332693</v>
+        <v>-0.2295293170171879</v>
       </c>
       <c r="C59">
-        <v>-0.4012288472671365</v>
+        <v>0.2992562599675969</v>
       </c>
       <c r="D59">
-        <v>0.03697345894483454</v>
+        <v>-0.03980390239418265</v>
       </c>
       <c r="E59">
-        <v>-0.03855193659453238</v>
+        <v>-0.00470337738076228</v>
       </c>
       <c r="F59">
-        <v>-0.06702232645286108</v>
+        <v>-0.02145437830400035</v>
       </c>
       <c r="G59">
-        <v>-0.01429656930837054</v>
+        <v>-0.05580317786388903</v>
       </c>
       <c r="H59">
-        <v>0.07835793331981204</v>
+        <v>-0.03213146119613786</v>
       </c>
       <c r="I59">
-        <v>-0.0237816940380713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1217157638833617</v>
+      </c>
+      <c r="J59">
+        <v>-0.0561456099505272</v>
+      </c>
+      <c r="K59">
+        <v>0.04087990912335183</v>
+      </c>
+      <c r="L59">
+        <v>-0.03097320816604061</v>
+      </c>
+      <c r="M59">
+        <v>0.01032300471157288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2506327363858153</v>
+        <v>-0.2448213462227817</v>
       </c>
       <c r="C60">
-        <v>0.07778441879951373</v>
+        <v>-0.120106972517633</v>
       </c>
       <c r="D60">
-        <v>0.09518274068618038</v>
+        <v>-0.06533562562799351</v>
       </c>
       <c r="E60">
-        <v>-0.02439366413307155</v>
+        <v>-0.04769833966694431</v>
       </c>
       <c r="F60">
-        <v>0.04732259133561617</v>
+        <v>0.09184506313921818</v>
       </c>
       <c r="G60">
-        <v>-0.06019938429168305</v>
+        <v>0.04777051788161645</v>
       </c>
       <c r="H60">
-        <v>-0.06801334409451315</v>
+        <v>-0.09674714043960515</v>
       </c>
       <c r="I60">
-        <v>0.2211402099817044</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.01834726849061699</v>
+      </c>
+      <c r="J60">
+        <v>0.05836154271021532</v>
+      </c>
+      <c r="K60">
+        <v>-0.03587003665715106</v>
+      </c>
+      <c r="L60">
+        <v>-0.2080093916469446</v>
+      </c>
+      <c r="M60">
+        <v>0.01099558258639509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08174793356170204</v>
+        <v>-0.0922689650420751</v>
       </c>
       <c r="C61">
-        <v>0.06100867936705068</v>
+        <v>-0.06517091765943486</v>
       </c>
       <c r="D61">
-        <v>0.01606849326184649</v>
+        <v>-0.04260968002840117</v>
       </c>
       <c r="E61">
-        <v>-0.005640720940091856</v>
+        <v>-0.01131452779417887</v>
       </c>
       <c r="F61">
-        <v>-0.01723537500095851</v>
+        <v>-0.1137260955939217</v>
       </c>
       <c r="G61">
-        <v>0.009880427921026304</v>
+        <v>-0.08460442372666743</v>
       </c>
       <c r="H61">
-        <v>0.05550020248368298</v>
+        <v>0.02165206266770469</v>
       </c>
       <c r="I61">
-        <v>-0.06832377632632543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.05152806320261085</v>
+      </c>
+      <c r="J61">
+        <v>-0.04419584741252235</v>
+      </c>
+      <c r="K61">
+        <v>0.07237608695240302</v>
+      </c>
+      <c r="L61">
+        <v>0.04349843282298665</v>
+      </c>
+      <c r="M61">
+        <v>0.02273881620164249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1656208517667733</v>
+        <v>-0.141686045474423</v>
       </c>
       <c r="C62">
-        <v>0.06061285783977242</v>
+        <v>-0.07547169181725125</v>
       </c>
       <c r="D62">
-        <v>0.009766097327947046</v>
+        <v>-0.03248415638361044</v>
       </c>
       <c r="E62">
-        <v>0.1199193999280792</v>
+        <v>0.03453610416109145</v>
       </c>
       <c r="F62">
-        <v>-0.2135488839250777</v>
+        <v>0.03458110079364222</v>
       </c>
       <c r="G62">
-        <v>0.1245480635484613</v>
+        <v>-0.1587135907944554</v>
       </c>
       <c r="H62">
-        <v>0.02474025294021787</v>
+        <v>0.05562232509962738</v>
       </c>
       <c r="I62">
-        <v>0.05917429573620955</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1270114198110518</v>
+      </c>
+      <c r="J62">
+        <v>0.004488717833104052</v>
+      </c>
+      <c r="K62">
+        <v>-0.1681703295416412</v>
+      </c>
+      <c r="L62">
+        <v>-0.02671986839820415</v>
+      </c>
+      <c r="M62">
+        <v>0.001423771073836885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04409502599040392</v>
+        <v>-0.04513573907292823</v>
       </c>
       <c r="C63">
-        <v>0.03824105788257056</v>
+        <v>-0.02672653613534461</v>
       </c>
       <c r="D63">
-        <v>0.01517794600659004</v>
+        <v>-0.005383162429813366</v>
       </c>
       <c r="E63">
-        <v>-0.008802610886008934</v>
+        <v>0.01169363969437902</v>
       </c>
       <c r="F63">
-        <v>-0.02050405283586505</v>
+        <v>-0.05898212861426346</v>
       </c>
       <c r="G63">
-        <v>0.03262409749093147</v>
+        <v>-0.01078298310289111</v>
       </c>
       <c r="H63">
-        <v>-0.05276942275949214</v>
+        <v>0.03192031451261389</v>
       </c>
       <c r="I63">
-        <v>-0.06338840240018115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.03758387822091328</v>
+      </c>
+      <c r="J63">
+        <v>0.03814571322515831</v>
+      </c>
+      <c r="K63">
+        <v>-0.006722664787490711</v>
+      </c>
+      <c r="L63">
+        <v>0.01684155890897172</v>
+      </c>
+      <c r="M63">
+        <v>0.002130296489267913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1030252524051454</v>
+        <v>-0.101019060487309</v>
       </c>
       <c r="C64">
-        <v>0.03222941916654205</v>
+        <v>-0.04830505169857661</v>
       </c>
       <c r="D64">
-        <v>0.03548375177272226</v>
+        <v>0.007287970361502395</v>
       </c>
       <c r="E64">
-        <v>-0.03814593515488426</v>
+        <v>-0.03956641395420607</v>
       </c>
       <c r="F64">
-        <v>0.01109297014512782</v>
+        <v>-0.06446229943446487</v>
       </c>
       <c r="G64">
-        <v>-0.006667891797040778</v>
+        <v>-0.02115994413733369</v>
       </c>
       <c r="H64">
-        <v>0.02927336321431023</v>
+        <v>0.001452156943131232</v>
       </c>
       <c r="I64">
-        <v>-0.05580268404071363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.07935392240836654</v>
+      </c>
+      <c r="J64">
+        <v>0.006325431748091416</v>
+      </c>
+      <c r="K64">
+        <v>0.01740553045083475</v>
+      </c>
+      <c r="L64">
+        <v>0.03689512163910406</v>
+      </c>
+      <c r="M64">
+        <v>0.008705926159724323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1307623047885765</v>
+        <v>-0.1241246107438331</v>
       </c>
       <c r="C65">
-        <v>0.07035666482282489</v>
+        <v>-0.04733374296007817</v>
       </c>
       <c r="D65">
-        <v>0.04836649825575977</v>
+        <v>-0.004011434578631397</v>
       </c>
       <c r="E65">
-        <v>-0.1285620414424509</v>
+        <v>-0.001110728684167674</v>
       </c>
       <c r="F65">
-        <v>0.1279813897237079</v>
+        <v>-0.06063198621396414</v>
       </c>
       <c r="G65">
-        <v>-0.008677577178903313</v>
+        <v>0.191647101050882</v>
       </c>
       <c r="H65">
-        <v>-0.6557820581005541</v>
+        <v>-0.07319421597891236</v>
       </c>
       <c r="I65">
-        <v>0.03407114510047998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1231258906679847</v>
+      </c>
+      <c r="J65">
+        <v>0.58230305251926</v>
+      </c>
+      <c r="K65">
+        <v>-0.2544564943177828</v>
+      </c>
+      <c r="L65">
+        <v>-0.1987756732991018</v>
+      </c>
+      <c r="M65">
+        <v>0.08072031539632292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1517207560632864</v>
+        <v>-0.1279295049772426</v>
       </c>
       <c r="C66">
-        <v>0.1488537120404469</v>
+        <v>-0.133290675641984</v>
       </c>
       <c r="D66">
-        <v>0.02695435086114994</v>
+        <v>-0.1048058831486389</v>
       </c>
       <c r="E66">
-        <v>0.01553507685146601</v>
+        <v>0.02761451978641403</v>
       </c>
       <c r="F66">
-        <v>-0.09149829266103722</v>
+        <v>-0.1667429902406806</v>
       </c>
       <c r="G66">
-        <v>-0.05422495514285527</v>
+        <v>-0.1018850970409829</v>
       </c>
       <c r="H66">
-        <v>0.2165582167636065</v>
+        <v>0.007112987815343134</v>
       </c>
       <c r="I66">
-        <v>-0.3186795652864488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1285399331945531</v>
+      </c>
+      <c r="J66">
+        <v>-0.1599912942708167</v>
+      </c>
+      <c r="K66">
+        <v>0.1795609075256875</v>
+      </c>
+      <c r="L66">
+        <v>0.02293966459990907</v>
+      </c>
+      <c r="M66">
+        <v>0.08308148993203236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07758634858794358</v>
+        <v>-0.08010431338780095</v>
       </c>
       <c r="C67">
-        <v>0.05225201309463047</v>
+        <v>-0.06119875440241111</v>
       </c>
       <c r="D67">
-        <v>0.000193797399091813</v>
+        <v>0.01774043953087944</v>
       </c>
       <c r="E67">
-        <v>-0.00343743346915471</v>
+        <v>-0.01436373959073768</v>
       </c>
       <c r="F67">
-        <v>0.0003120417499009161</v>
+        <v>0.04084847230671401</v>
       </c>
       <c r="G67">
-        <v>-0.01166584845560651</v>
+        <v>-0.08377427367464899</v>
       </c>
       <c r="H67">
-        <v>0.06328513216054725</v>
+        <v>-0.08871971651077849</v>
       </c>
       <c r="I67">
-        <v>-0.03234556364214274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.01355737630217377</v>
+      </c>
+      <c r="J67">
+        <v>-0.09643143839382204</v>
+      </c>
+      <c r="K67">
+        <v>-0.06834784762285519</v>
+      </c>
+      <c r="L67">
+        <v>0.02953555011843549</v>
+      </c>
+      <c r="M67">
+        <v>0.06265014738597936</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.10459965158827</v>
+        <v>-0.1217618349037395</v>
       </c>
       <c r="C68">
-        <v>-0.2749647756066378</v>
+        <v>0.2752680388087012</v>
       </c>
       <c r="D68">
-        <v>0.004148888513273212</v>
+        <v>-0.00271811977981571</v>
       </c>
       <c r="E68">
-        <v>-0.01751358200179912</v>
+        <v>-0.00445822432405647</v>
       </c>
       <c r="F68">
-        <v>-0.002952839979338009</v>
+        <v>-0.02216834239860359</v>
       </c>
       <c r="G68">
-        <v>0.05142770558581494</v>
+        <v>-0.03172857748585169</v>
       </c>
       <c r="H68">
-        <v>-0.01778026905490195</v>
+        <v>0.01808317334218039</v>
       </c>
       <c r="I68">
-        <v>-0.001201884112946169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.02991882869715505</v>
+      </c>
+      <c r="J68">
+        <v>0.06350929945775394</v>
+      </c>
+      <c r="K68">
+        <v>-0.01455723549746027</v>
+      </c>
+      <c r="L68">
+        <v>0.004731534766868821</v>
+      </c>
+      <c r="M68">
+        <v>0.04249580461180469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03864310951722829</v>
+        <v>-0.04318788561183557</v>
       </c>
       <c r="C69">
-        <v>0.02940612701233965</v>
+        <v>-0.02245817070284704</v>
       </c>
       <c r="D69">
-        <v>0.002483281010220059</v>
+        <v>0.009932212104222274</v>
       </c>
       <c r="E69">
-        <v>-0.01265302456861087</v>
+        <v>0.004680732950931215</v>
       </c>
       <c r="F69">
-        <v>-0.0412692478070975</v>
+        <v>-0.01477911140456945</v>
       </c>
       <c r="G69">
-        <v>0.006250476438486922</v>
+        <v>-0.03736233398688998</v>
       </c>
       <c r="H69">
-        <v>1.60481064078155e-05</v>
+        <v>-0.003499951870354753</v>
       </c>
       <c r="I69">
-        <v>-0.01301166802578914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.008193149689537743</v>
+      </c>
+      <c r="J69">
+        <v>-0.01189235258719961</v>
+      </c>
+      <c r="K69">
+        <v>-0.02296033976283718</v>
+      </c>
+      <c r="L69">
+        <v>-0.0009835400624071974</v>
+      </c>
+      <c r="M69">
+        <v>-0.06489885506188044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04554464329464559</v>
+        <v>-0.05061020317933041</v>
       </c>
       <c r="C70">
-        <v>0.003450279268969603</v>
+        <v>-0.03434157215673512</v>
       </c>
       <c r="D70">
-        <v>0.0324515793551924</v>
+        <v>-0.02005612574455512</v>
       </c>
       <c r="E70">
-        <v>0.02573743659677043</v>
+        <v>-0.01256295843877763</v>
       </c>
       <c r="F70">
-        <v>0.1033192076202697</v>
+        <v>0.002217212837525921</v>
       </c>
       <c r="G70">
-        <v>-0.05608602273629416</v>
+        <v>0.06619805450965562</v>
       </c>
       <c r="H70">
-        <v>0.0319563939645746</v>
+        <v>0.01017047392367778</v>
       </c>
       <c r="I70">
-        <v>-0.04066674099492046</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.0362737257921934</v>
+      </c>
+      <c r="J70">
+        <v>0.01608759773413897</v>
+      </c>
+      <c r="K70">
+        <v>-0.1413359937846601</v>
+      </c>
+      <c r="L70">
+        <v>0.2765059822866152</v>
+      </c>
+      <c r="M70">
+        <v>-0.1888251826273188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1082347402750993</v>
+        <v>-0.1366895794510917</v>
       </c>
       <c r="C71">
-        <v>-0.2803745522847485</v>
+        <v>0.2821547975019514</v>
       </c>
       <c r="D71">
-        <v>0.03354582997581271</v>
+        <v>-0.008708037185057898</v>
       </c>
       <c r="E71">
-        <v>-0.00417663950859793</v>
+        <v>-0.0229048988135584</v>
       </c>
       <c r="F71">
-        <v>0.01914406012034266</v>
+        <v>-0.02688570153727926</v>
       </c>
       <c r="G71">
-        <v>0.03309684465241044</v>
+        <v>-0.0340130773160628</v>
       </c>
       <c r="H71">
-        <v>0.003365893111488098</v>
+        <v>0.01171334296642432</v>
       </c>
       <c r="I71">
-        <v>-0.04071536634952935</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.04078790709486704</v>
+      </c>
+      <c r="J71">
+        <v>0.01880281380880545</v>
+      </c>
+      <c r="K71">
+        <v>-0.002480297436223234</v>
+      </c>
+      <c r="L71">
+        <v>0.0009417940534543935</v>
+      </c>
+      <c r="M71">
+        <v>0.02098001068851744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.182630012160008</v>
+        <v>-0.1434099559141056</v>
       </c>
       <c r="C72">
-        <v>0.04223273424867145</v>
+        <v>-0.03332806608981994</v>
       </c>
       <c r="D72">
-        <v>-0.2385707432112402</v>
+        <v>0.004686568578847021</v>
       </c>
       <c r="E72">
-        <v>0.02515942246849481</v>
+        <v>0.1858207069911783</v>
       </c>
       <c r="F72">
-        <v>-0.07820479029939817</v>
+        <v>-0.05054038258392005</v>
       </c>
       <c r="G72">
-        <v>-0.06675194044728142</v>
+        <v>-0.00447466417718427</v>
       </c>
       <c r="H72">
-        <v>-0.133313894399275</v>
+        <v>-0.06079777893354262</v>
       </c>
       <c r="I72">
-        <v>-0.02572799014459406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.02820881245985441</v>
+      </c>
+      <c r="J72">
+        <v>0.08193434461986504</v>
+      </c>
+      <c r="K72">
+        <v>-0.09796067844084057</v>
+      </c>
+      <c r="L72">
+        <v>-0.1097630032049022</v>
+      </c>
+      <c r="M72">
+        <v>0.01583626827178371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2705541144125624</v>
+        <v>-0.2420233476066657</v>
       </c>
       <c r="C73">
-        <v>0.1964431529514557</v>
+        <v>-0.1562506368985806</v>
       </c>
       <c r="D73">
-        <v>0.1291191701123842</v>
+        <v>-0.1609572375434048</v>
       </c>
       <c r="E73">
-        <v>0.05448485574038092</v>
+        <v>-0.1017668115591813</v>
       </c>
       <c r="F73">
-        <v>0.1841239523288719</v>
+        <v>0.4134138737311463</v>
       </c>
       <c r="G73">
-        <v>-0.05012462900057128</v>
+        <v>0.1180337659837672</v>
       </c>
       <c r="H73">
-        <v>-0.1670068909477838</v>
+        <v>-0.2133279306260243</v>
       </c>
       <c r="I73">
-        <v>0.1895631272670475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.3182200774209359</v>
+      </c>
+      <c r="J73">
+        <v>-0.1784112863789388</v>
+      </c>
+      <c r="K73">
+        <v>0.144948032534903</v>
+      </c>
+      <c r="L73">
+        <v>-0.3019090891323742</v>
+      </c>
+      <c r="M73">
+        <v>0.1339996077261178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09486800072821185</v>
+        <v>-0.09124462024391811</v>
       </c>
       <c r="C74">
-        <v>0.0331669299347826</v>
+        <v>-0.06956508612873268</v>
       </c>
       <c r="D74">
-        <v>0.01361951791038803</v>
+        <v>-0.01205401676855849</v>
       </c>
       <c r="E74">
-        <v>0.02767854385545098</v>
+        <v>0.01150978067183064</v>
       </c>
       <c r="F74">
-        <v>-0.08551732389520762</v>
+        <v>0.03888899962740726</v>
       </c>
       <c r="G74">
-        <v>0.1506122109696313</v>
+        <v>-0.1511295634585741</v>
       </c>
       <c r="H74">
-        <v>-0.04156240096456389</v>
+        <v>0.01899959401310254</v>
       </c>
       <c r="I74">
-        <v>0.01147131171157393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.001901789197874499</v>
+      </c>
+      <c r="J74">
+        <v>-0.008720094488438869</v>
+      </c>
+      <c r="K74">
+        <v>-0.04980714697703235</v>
+      </c>
+      <c r="L74">
+        <v>-0.03572145170371058</v>
+      </c>
+      <c r="M74">
+        <v>0.03626857030509742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09520337229049193</v>
+        <v>-0.09105283719093606</v>
       </c>
       <c r="C75">
-        <v>0.0185736460975013</v>
+        <v>-0.0503381314286338</v>
       </c>
       <c r="D75">
-        <v>0.01425280775650376</v>
+        <v>-0.005685435461358157</v>
       </c>
       <c r="E75">
-        <v>0.02767575121502192</v>
+        <v>0.01439396538374777</v>
       </c>
       <c r="F75">
-        <v>-0.0858517915237476</v>
+        <v>0.01812743731584709</v>
       </c>
       <c r="G75">
-        <v>0.07272588717514049</v>
+        <v>-0.09708489217857172</v>
       </c>
       <c r="H75">
-        <v>0.009828707993205846</v>
+        <v>0.01581009299215354</v>
       </c>
       <c r="I75">
-        <v>0.09948132493958828</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.09514088256048976</v>
+      </c>
+      <c r="J75">
+        <v>0.00900048340335154</v>
+      </c>
+      <c r="K75">
+        <v>-0.03471835087733957</v>
+      </c>
+      <c r="L75">
+        <v>-0.02578312676232272</v>
+      </c>
+      <c r="M75">
+        <v>-0.05548213706131861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1299330672660638</v>
+        <v>-0.09369831681213277</v>
       </c>
       <c r="C76">
-        <v>0.03569596566665703</v>
+        <v>-0.06617638998582305</v>
       </c>
       <c r="D76">
-        <v>0.01498150354837642</v>
+        <v>-0.002048103442569456</v>
       </c>
       <c r="E76">
-        <v>0.01243510124254271</v>
+        <v>-0.007626806902050756</v>
       </c>
       <c r="F76">
-        <v>-0.1669462942558446</v>
+        <v>0.05634360092183922</v>
       </c>
       <c r="G76">
-        <v>0.1727373291398412</v>
+        <v>-0.1913194205841423</v>
       </c>
       <c r="H76">
-        <v>-0.02457317649780547</v>
+        <v>0.040609300570626</v>
       </c>
       <c r="I76">
-        <v>0.1586958414302717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.1178153351992669</v>
+      </c>
+      <c r="J76">
+        <v>0.02187459162527358</v>
+      </c>
+      <c r="K76">
+        <v>-0.07297829278935701</v>
+      </c>
+      <c r="L76">
+        <v>-0.04212539621487778</v>
+      </c>
+      <c r="M76">
+        <v>0.1018223409533247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.09061136088635668</v>
+        <v>-0.07535957823917253</v>
       </c>
       <c r="C77">
-        <v>0.02667038604557411</v>
+        <v>-0.01811679303873444</v>
       </c>
       <c r="D77">
-        <v>-0.006355376635700113</v>
+        <v>-0.004422870679731124</v>
       </c>
       <c r="E77">
-        <v>-0.3551602488263075</v>
+        <v>-0.04591424764592664</v>
       </c>
       <c r="F77">
-        <v>-0.4448041527068737</v>
+        <v>-0.4488098541714268</v>
       </c>
       <c r="G77">
-        <v>-0.6644226699095451</v>
+        <v>0.1895226763699901</v>
       </c>
       <c r="H77">
-        <v>0.02541354810754175</v>
+        <v>-0.6775782102090327</v>
       </c>
       <c r="I77">
-        <v>0.2541596948232625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.1932607459136785</v>
+      </c>
+      <c r="J77">
+        <v>-0.2370698823111523</v>
+      </c>
+      <c r="K77">
+        <v>-0.1462779304413111</v>
+      </c>
+      <c r="L77">
+        <v>-0.06149881119562374</v>
+      </c>
+      <c r="M77">
+        <v>0.05441793185603265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1391713917868792</v>
+        <v>-0.1655846096723538</v>
       </c>
       <c r="C78">
-        <v>0.09428420681850772</v>
+        <v>-0.1219132438917657</v>
       </c>
       <c r="D78">
-        <v>0.01128164999613644</v>
+        <v>0.1821387480947815</v>
       </c>
       <c r="E78">
-        <v>-0.1522082148772653</v>
+        <v>-0.09651025151035081</v>
       </c>
       <c r="F78">
-        <v>0.05980987843574864</v>
+        <v>-0.109561526506155</v>
       </c>
       <c r="G78">
-        <v>0.01630036797483166</v>
+        <v>0.2833742698117399</v>
       </c>
       <c r="H78">
-        <v>0.1188409548693887</v>
+        <v>0.1938536533754317</v>
       </c>
       <c r="I78">
-        <v>-0.05696633856176798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.570476443870066</v>
+      </c>
+      <c r="J78">
+        <v>0.127471472624432</v>
+      </c>
+      <c r="K78">
+        <v>0.4979417627967305</v>
+      </c>
+      <c r="L78">
+        <v>-0.2130370291259652</v>
+      </c>
+      <c r="M78">
+        <v>0.08425833172336217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1398353205024819</v>
+        <v>-0.1344436593671818</v>
       </c>
       <c r="C79">
-        <v>0.05469286504796027</v>
+        <v>-0.07367586201604308</v>
       </c>
       <c r="D79">
-        <v>0.02171698956568883</v>
+        <v>-0.004232124840881368</v>
       </c>
       <c r="E79">
-        <v>0.0492416174836733</v>
+        <v>-0.001295786664820234</v>
       </c>
       <c r="F79">
-        <v>-0.1282625848815856</v>
+        <v>0.003221389618444134</v>
       </c>
       <c r="G79">
-        <v>0.1036481966899143</v>
+        <v>-0.1501498333683785</v>
       </c>
       <c r="H79">
-        <v>0.01799843930961483</v>
+        <v>0.02902565135388856</v>
       </c>
       <c r="I79">
-        <v>0.06298433415569175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.0793797602111047</v>
+      </c>
+      <c r="J79">
+        <v>0.005299924597089556</v>
+      </c>
+      <c r="K79">
+        <v>-0.1118530697490039</v>
+      </c>
+      <c r="L79">
+        <v>-0.03674862586199189</v>
+      </c>
+      <c r="M79">
+        <v>-0.009606166100657003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02599382311254139</v>
+        <v>-0.05413675778165373</v>
       </c>
       <c r="C80">
-        <v>-0.003721360240942648</v>
+        <v>-0.02236560280539545</v>
       </c>
       <c r="D80">
-        <v>0.004716505951472832</v>
+        <v>-0.0615218149015828</v>
       </c>
       <c r="E80">
-        <v>0.02998284462875758</v>
+        <v>-0.006508683375611244</v>
       </c>
       <c r="F80">
-        <v>-0.001229364494935993</v>
+        <v>-0.00658955232650482</v>
       </c>
       <c r="G80">
-        <v>-0.001557617143262053</v>
+        <v>0.01676277166361837</v>
       </c>
       <c r="H80">
-        <v>-0.07498867723155567</v>
+        <v>0.08591515331087166</v>
       </c>
       <c r="I80">
-        <v>-0.1058595053054628</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.08839753558393701</v>
+      </c>
+      <c r="J80">
+        <v>0.08633525803820322</v>
+      </c>
+      <c r="K80">
+        <v>0.0447920774896087</v>
+      </c>
+      <c r="L80">
+        <v>0.06937175340302658</v>
+      </c>
+      <c r="M80">
+        <v>0.04729746178026477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1124100548211639</v>
+        <v>-0.1200748927890863</v>
       </c>
       <c r="C81">
-        <v>0.05162128561144907</v>
+        <v>-0.05174837299137802</v>
       </c>
       <c r="D81">
-        <v>0.02766035596418695</v>
+        <v>8.434991527523278e-05</v>
       </c>
       <c r="E81">
-        <v>0.04044498796548616</v>
+        <v>-0.00281385143262353</v>
       </c>
       <c r="F81">
-        <v>-0.07637116673446104</v>
+        <v>-0.01200568159289165</v>
       </c>
       <c r="G81">
-        <v>0.0685838715474941</v>
+        <v>-0.136086259813098</v>
       </c>
       <c r="H81">
-        <v>0.006558307894975381</v>
+        <v>0.05608241549367017</v>
       </c>
       <c r="I81">
-        <v>0.07482934865788772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.06393804294782875</v>
+      </c>
+      <c r="J81">
+        <v>-0.03932165964234614</v>
+      </c>
+      <c r="K81">
+        <v>-0.04680861022225293</v>
+      </c>
+      <c r="L81">
+        <v>-0.02434369129700333</v>
+      </c>
+      <c r="M81">
+        <v>-0.08016970516322444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1087030764417228</v>
+        <v>-0.1186360789868685</v>
       </c>
       <c r="C82">
-        <v>0.0328000820832022</v>
+        <v>-0.05211887355997771</v>
       </c>
       <c r="D82">
-        <v>0.05465977919704528</v>
+        <v>-0.026943880425336</v>
       </c>
       <c r="E82">
-        <v>0.08822940875756591</v>
+        <v>0.007448213613745294</v>
       </c>
       <c r="F82">
-        <v>-0.200640965102856</v>
+        <v>0.04139732833165037</v>
       </c>
       <c r="G82">
-        <v>0.1751241878554075</v>
+        <v>-0.2265251940888034</v>
       </c>
       <c r="H82">
-        <v>0.04175872952540782</v>
+        <v>0.05133037557594718</v>
       </c>
       <c r="I82">
-        <v>0.03023871287584699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.09122516872429073</v>
+      </c>
+      <c r="J82">
+        <v>-0.05005670833378583</v>
+      </c>
+      <c r="K82">
+        <v>-0.08957106150941686</v>
+      </c>
+      <c r="L82">
+        <v>0.05197064929573724</v>
+      </c>
+      <c r="M82">
+        <v>-0.01132955178847845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05681027880044411</v>
+        <v>-0.07738847616190421</v>
       </c>
       <c r="C83">
-        <v>0.04115464783134377</v>
+        <v>-0.06434616572546456</v>
       </c>
       <c r="D83">
-        <v>0.02631671571774588</v>
+        <v>-0.01091207919892289</v>
       </c>
       <c r="E83">
-        <v>0.01757809578570347</v>
+        <v>-0.00133934028885572</v>
       </c>
       <c r="F83">
-        <v>0.04459274758274169</v>
+        <v>0.002120535324473309</v>
       </c>
       <c r="G83">
-        <v>-0.06481480249226974</v>
+        <v>-0.03871478313845537</v>
       </c>
       <c r="H83">
-        <v>0.08455525552906162</v>
+        <v>-0.03512741817273557</v>
       </c>
       <c r="I83">
-        <v>-0.1116454806409915</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.06469418680366154</v>
+      </c>
+      <c r="J83">
+        <v>-0.01556683953712591</v>
+      </c>
+      <c r="K83">
+        <v>0.04299060421380451</v>
+      </c>
+      <c r="L83">
+        <v>0.1571909444044469</v>
+      </c>
+      <c r="M83">
+        <v>0.04252545899114739</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04452671894381178</v>
+        <v>-0.04809875951511539</v>
       </c>
       <c r="C84">
-        <v>0.0312501018850983</v>
+        <v>0.02055167560744379</v>
       </c>
       <c r="D84">
-        <v>-0.04864926819582626</v>
+        <v>-0.007262163583365063</v>
       </c>
       <c r="E84">
-        <v>0.0211151172851531</v>
+        <v>0.01875103294689542</v>
       </c>
       <c r="F84">
-        <v>0.0590942352058423</v>
+        <v>-0.0007901311225394114</v>
       </c>
       <c r="G84">
-        <v>0.1047037977704224</v>
+        <v>0.2054503207725522</v>
       </c>
       <c r="H84">
-        <v>0.01497098673494738</v>
+        <v>0.1953210211434763</v>
       </c>
       <c r="I84">
-        <v>-0.02896409419573594</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.08128668700719636</v>
+      </c>
+      <c r="J84">
+        <v>-0.1200060197115918</v>
+      </c>
+      <c r="K84">
+        <v>0.01434068161892005</v>
+      </c>
+      <c r="L84">
+        <v>0.1418763546570539</v>
+      </c>
+      <c r="M84">
+        <v>0.6565783291516673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08302793495001645</v>
+        <v>-0.1079466805942704</v>
       </c>
       <c r="C85">
-        <v>0.0496254753101617</v>
+        <v>-0.05193066512462674</v>
       </c>
       <c r="D85">
-        <v>0.05002143044131307</v>
+        <v>-0.0124423371812272</v>
       </c>
       <c r="E85">
-        <v>0.02058725184403915</v>
+        <v>-0.02927731020808737</v>
       </c>
       <c r="F85">
-        <v>-0.1526107239486543</v>
+        <v>0.0002007506639079925</v>
       </c>
       <c r="G85">
-        <v>0.11396449078836</v>
+        <v>-0.1593533786293931</v>
       </c>
       <c r="H85">
-        <v>-0.02696931884830563</v>
+        <v>0.03655350368626911</v>
       </c>
       <c r="I85">
-        <v>0.04405851907723347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.07949342205626131</v>
+      </c>
+      <c r="J85">
+        <v>0.006289835485651551</v>
+      </c>
+      <c r="K85">
+        <v>-0.1053561834405853</v>
+      </c>
+      <c r="L85">
+        <v>-0.06319944666999386</v>
+      </c>
+      <c r="M85">
+        <v>-0.02720932379447573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03567301545850205</v>
+        <v>-0.07363164980540186</v>
       </c>
       <c r="C86">
-        <v>0.05514800411637627</v>
+        <v>-0.02382532496721831</v>
       </c>
       <c r="D86">
-        <v>-0.01718071325277879</v>
+        <v>0.009242284160718558</v>
       </c>
       <c r="E86">
-        <v>-0.02713339866171105</v>
+        <v>-0.0921712657132894</v>
       </c>
       <c r="F86">
-        <v>0.0150623454922052</v>
+        <v>-0.04891917083828571</v>
       </c>
       <c r="G86">
-        <v>-0.05557635146416227</v>
+        <v>0.4217591529476818</v>
       </c>
       <c r="H86">
-        <v>-0.1423697614668129</v>
+        <v>0.4539437566545443</v>
       </c>
       <c r="I86">
-        <v>-0.2232241693334979</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.02715168943831183</v>
+      </c>
+      <c r="J86">
+        <v>-0.3898465277945163</v>
+      </c>
+      <c r="K86">
+        <v>-0.4334610909958169</v>
+      </c>
+      <c r="L86">
+        <v>-0.1677999774589666</v>
+      </c>
+      <c r="M86">
+        <v>-0.03161653306507132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.0865586257076067</v>
+        <v>-0.1135235644591269</v>
       </c>
       <c r="C87">
-        <v>0.06637637534721728</v>
+        <v>-0.06532275011648028</v>
       </c>
       <c r="D87">
-        <v>0.008670603484134874</v>
+        <v>0.03535353325989002</v>
       </c>
       <c r="E87">
-        <v>-0.1450642063722703</v>
+        <v>-0.03795688237944445</v>
       </c>
       <c r="F87">
-        <v>-0.08726930459125186</v>
+        <v>-0.1561518634672492</v>
       </c>
       <c r="G87">
-        <v>-0.1336083396027698</v>
+        <v>0.09286107381376098</v>
       </c>
       <c r="H87">
-        <v>0.04101001036815797</v>
+        <v>-0.1507507346767921</v>
       </c>
       <c r="I87">
-        <v>-0.09678939457063782</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.02469128436040371</v>
+      </c>
+      <c r="J87">
+        <v>-0.07028536493331838</v>
+      </c>
+      <c r="K87">
+        <v>-0.05220998548702607</v>
+      </c>
+      <c r="L87">
+        <v>0.1225778107682901</v>
+      </c>
+      <c r="M87">
+        <v>0.003228740025568934</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04948448450187241</v>
+        <v>-0.05599007664290583</v>
       </c>
       <c r="C88">
-        <v>0.03920977624977506</v>
+        <v>-0.05250270296581703</v>
       </c>
       <c r="D88">
-        <v>0.02057154456941024</v>
+        <v>-0.02715789824850514</v>
       </c>
       <c r="E88">
-        <v>-0.005817931726031941</v>
+        <v>-0.01234393408252197</v>
       </c>
       <c r="F88">
-        <v>-0.001740120101536903</v>
+        <v>-0.0307369021296151</v>
       </c>
       <c r="G88">
-        <v>-0.01788131428015727</v>
+        <v>-0.03489110907317359</v>
       </c>
       <c r="H88">
-        <v>0.01839119675995452</v>
+        <v>0.02077493890515335</v>
       </c>
       <c r="I88">
-        <v>-0.05954564064110034</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.04075307172984644</v>
+      </c>
+      <c r="J88">
+        <v>-0.007686224563019387</v>
+      </c>
+      <c r="K88">
+        <v>0.01890417587600225</v>
+      </c>
+      <c r="L88">
+        <v>0.01852515142384591</v>
+      </c>
+      <c r="M88">
+        <v>-0.01836939478219176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1815409185363497</v>
+        <v>-0.2151589963741659</v>
       </c>
       <c r="C89">
-        <v>-0.3109888190850801</v>
+        <v>0.3566449182053431</v>
       </c>
       <c r="D89">
-        <v>0.07598065453510711</v>
+        <v>0.04847493926166298</v>
       </c>
       <c r="E89">
-        <v>-0.0947940953514833</v>
+        <v>-0.08077192198828959</v>
       </c>
       <c r="F89">
-        <v>0.04236953590328428</v>
+        <v>-0.01162356647456624</v>
       </c>
       <c r="G89">
-        <v>0.004535511382133949</v>
+        <v>-0.01032468563275514</v>
       </c>
       <c r="H89">
-        <v>0.003527938970208054</v>
+        <v>0.03656689577125032</v>
       </c>
       <c r="I89">
-        <v>-0.06354363026725861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.02170931822134531</v>
+      </c>
+      <c r="J89">
+        <v>-0.02820454963775935</v>
+      </c>
+      <c r="K89">
+        <v>0.08058199989308722</v>
+      </c>
+      <c r="L89">
+        <v>0.01353134763571754</v>
+      </c>
+      <c r="M89">
+        <v>-0.1080924570167976</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1278244219978339</v>
+        <v>-0.1491259536785751</v>
       </c>
       <c r="C90">
-        <v>-0.2765784496089608</v>
+        <v>0.2703997985810256</v>
       </c>
       <c r="D90">
-        <v>0.01084790676307227</v>
+        <v>-0.008134604634446124</v>
       </c>
       <c r="E90">
-        <v>-0.05951759241839731</v>
+        <v>-0.02467929095569916</v>
       </c>
       <c r="F90">
-        <v>0.008424942524563805</v>
+        <v>-0.03031496819217957</v>
       </c>
       <c r="G90">
-        <v>-0.04663215816926555</v>
+        <v>0.002242309578252022</v>
       </c>
       <c r="H90">
-        <v>0.02193732765498137</v>
+        <v>-0.01735543031721124</v>
       </c>
       <c r="I90">
-        <v>-0.1201761633707246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.06020388230643928</v>
+      </c>
+      <c r="J90">
+        <v>-0.0039673636063</v>
+      </c>
+      <c r="K90">
+        <v>0.02830612543479695</v>
+      </c>
+      <c r="L90">
+        <v>-0.00724464847023515</v>
+      </c>
+      <c r="M90">
+        <v>0.0486503966392719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08228103607497918</v>
+        <v>-0.07832894865532442</v>
       </c>
       <c r="C91">
-        <v>0.02669531479205258</v>
+        <v>-0.04946492066214008</v>
       </c>
       <c r="D91">
-        <v>0.006829939811100691</v>
+        <v>0.01073795959691873</v>
       </c>
       <c r="E91">
-        <v>-0.01183481279605999</v>
+        <v>-0.007455180649217881</v>
       </c>
       <c r="F91">
-        <v>-0.05675832821269141</v>
+        <v>0.01964239700764424</v>
       </c>
       <c r="G91">
-        <v>0.09191913164663686</v>
+        <v>-0.08162109845218982</v>
       </c>
       <c r="H91">
-        <v>0.003288501404797569</v>
+        <v>0.02111299663512443</v>
       </c>
       <c r="I91">
-        <v>0.07486852147152871</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.05961989426741292</v>
+      </c>
+      <c r="J91">
+        <v>-0.02761970518206468</v>
+      </c>
+      <c r="K91">
+        <v>-0.0185337859593719</v>
+      </c>
+      <c r="L91">
+        <v>-0.03114610038499202</v>
+      </c>
+      <c r="M91">
+        <v>0.01701176532899663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1523550807782556</v>
+        <v>-0.1642276813777609</v>
       </c>
       <c r="C92">
-        <v>-0.2942649120246872</v>
+        <v>0.3009152204295522</v>
       </c>
       <c r="D92">
-        <v>0.05669912222133247</v>
+        <v>0.03473863041273048</v>
       </c>
       <c r="E92">
-        <v>-0.02983412187527353</v>
+        <v>-0.0459996822384699</v>
       </c>
       <c r="F92">
-        <v>0.06501807801640046</v>
+        <v>-0.01639221917584065</v>
       </c>
       <c r="G92">
-        <v>0.04898090465603953</v>
+        <v>-0.0369234673461989</v>
       </c>
       <c r="H92">
-        <v>0.002329975949822859</v>
+        <v>0.02028180874545325</v>
       </c>
       <c r="I92">
-        <v>0.01715789282463069</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.008354171504025619</v>
+      </c>
+      <c r="J92">
+        <v>0.009829116039252225</v>
+      </c>
+      <c r="K92">
+        <v>0.04071924187397199</v>
+      </c>
+      <c r="L92">
+        <v>-0.0004732148875462405</v>
+      </c>
+      <c r="M92">
+        <v>-0.0736436005989127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1433529850113367</v>
+        <v>-0.1632902045450179</v>
       </c>
       <c r="C93">
-        <v>-0.2447082582005271</v>
+        <v>0.2873108895908892</v>
       </c>
       <c r="D93">
-        <v>0.0267022284282591</v>
+        <v>-0.02673514757278099</v>
       </c>
       <c r="E93">
-        <v>-0.02721341471584372</v>
+        <v>-0.01386777154984177</v>
       </c>
       <c r="F93">
-        <v>0.03529279200289046</v>
+        <v>-0.0116127714236634</v>
       </c>
       <c r="G93">
-        <v>-0.02177372138324934</v>
+        <v>0.01221179180618045</v>
       </c>
       <c r="H93">
-        <v>0.003148030096224299</v>
+        <v>0.02720275600504624</v>
       </c>
       <c r="I93">
-        <v>-0.0400004088903522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.03403713004383934</v>
+      </c>
+      <c r="J93">
+        <v>-0.005034973020249529</v>
+      </c>
+      <c r="K93">
+        <v>-0.01999985735043185</v>
+      </c>
+      <c r="L93">
+        <v>0.02184087791165512</v>
+      </c>
+      <c r="M93">
+        <v>0.0360957573550174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08402411679463233</v>
+        <v>-0.1054884370658491</v>
       </c>
       <c r="C94">
-        <v>0.05655967497240816</v>
+        <v>-0.07547390038520045</v>
       </c>
       <c r="D94">
-        <v>0.00410011727997229</v>
+        <v>0.01615901646081625</v>
       </c>
       <c r="E94">
-        <v>0.006603392797677378</v>
+        <v>-0.01158063972296175</v>
       </c>
       <c r="F94">
-        <v>-0.09025579144559141</v>
+        <v>0.03423812393031347</v>
       </c>
       <c r="G94">
-        <v>0.1289342850113213</v>
+        <v>-0.1172638222955598</v>
       </c>
       <c r="H94">
-        <v>-0.01140406246662099</v>
+        <v>0.03716328465005721</v>
       </c>
       <c r="I94">
-        <v>0.08546171820594341</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.06184500152752806</v>
+      </c>
+      <c r="J94">
+        <v>0.02356268178357602</v>
+      </c>
+      <c r="K94">
+        <v>-0.01517825203245767</v>
+      </c>
+      <c r="L94">
+        <v>-0.05011069320565597</v>
+      </c>
+      <c r="M94">
+        <v>-0.01436720025865748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09912002446728076</v>
+        <v>-0.1296729797492086</v>
       </c>
       <c r="C95">
-        <v>0.07576382655218253</v>
+        <v>-0.06991080570194025</v>
       </c>
       <c r="D95">
-        <v>0.0700522800361626</v>
+        <v>0.02039872936850061</v>
       </c>
       <c r="E95">
-        <v>-0.02238547002607311</v>
+        <v>-0.06468763316367826</v>
       </c>
       <c r="F95">
-        <v>0.04617866181002436</v>
+        <v>-0.07673176286775574</v>
       </c>
       <c r="G95">
-        <v>0.03160541344470217</v>
+        <v>0.1815512028343841</v>
       </c>
       <c r="H95">
-        <v>-0.005076357748864528</v>
+        <v>0.1152203528632787</v>
       </c>
       <c r="I95">
-        <v>-0.2346000193853768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1976924133898314</v>
+      </c>
+      <c r="J95">
+        <v>0.01558034750851705</v>
+      </c>
+      <c r="K95">
+        <v>-0.06406124242187768</v>
+      </c>
+      <c r="L95">
+        <v>0.01394299331542577</v>
+      </c>
+      <c r="M95">
+        <v>-0.4407434012335814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2653473957864084</v>
+        <v>-0.161676710541022</v>
       </c>
       <c r="C97">
-        <v>0.00294978304046786</v>
+        <v>0.006314904871542923</v>
       </c>
       <c r="D97">
-        <v>-0.8736479789235495</v>
+        <v>0.09228104505034704</v>
       </c>
       <c r="E97">
-        <v>0.1750714568083122</v>
+        <v>0.9351604743711652</v>
       </c>
       <c r="F97">
-        <v>0.07773924082337379</v>
+        <v>-0.01908918449763465</v>
       </c>
       <c r="G97">
-        <v>-0.08069797230024031</v>
+        <v>0.1114277268620514</v>
       </c>
       <c r="H97">
-        <v>-0.03500262732702627</v>
+        <v>0.02915136258686166</v>
       </c>
       <c r="I97">
-        <v>-0.03088963174928964</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.02703741416595705</v>
+      </c>
+      <c r="J97">
+        <v>-0.05904564446699958</v>
+      </c>
+      <c r="K97">
+        <v>0.04147742858799124</v>
+      </c>
+      <c r="L97">
+        <v>-0.01921524836959435</v>
+      </c>
+      <c r="M97">
+        <v>-0.03880085753767539</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2771860564141859</v>
+        <v>-0.2638568473877503</v>
       </c>
       <c r="C98">
-        <v>0.1083189428176475</v>
+        <v>-0.1170095091891413</v>
       </c>
       <c r="D98">
-        <v>0.1783463801452012</v>
+        <v>-0.01421589458857707</v>
       </c>
       <c r="E98">
-        <v>0.2928960732920897</v>
+        <v>-0.02392151230187281</v>
       </c>
       <c r="F98">
-        <v>0.4881260936499702</v>
+        <v>0.4165522591923855</v>
       </c>
       <c r="G98">
-        <v>-0.2158240168539249</v>
+        <v>0.2492698080090974</v>
       </c>
       <c r="H98">
-        <v>0.3087987863825789</v>
+        <v>-0.1671321407482381</v>
       </c>
       <c r="I98">
-        <v>0.2217860382818891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.2220142985589658</v>
+      </c>
+      <c r="J98">
+        <v>0.06611035853873415</v>
+      </c>
+      <c r="K98">
+        <v>0.03346025825433947</v>
+      </c>
+      <c r="L98">
+        <v>0.6182077293848636</v>
+      </c>
+      <c r="M98">
+        <v>-0.05825669371915616</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.0465755757633259</v>
+        <v>-0.06468674442515311</v>
       </c>
       <c r="C99">
-        <v>0.04800166614728597</v>
+        <v>-0.0506988854377139</v>
       </c>
       <c r="D99">
-        <v>-0.006747161938943329</v>
+        <v>0.0167289569216409</v>
       </c>
       <c r="E99">
-        <v>0.02884469690826227</v>
+        <v>-0.01041449026411326</v>
       </c>
       <c r="F99">
-        <v>-0.001493148778998872</v>
+        <v>0.00164073913995412</v>
       </c>
       <c r="G99">
-        <v>-0.1477518269623848</v>
+        <v>-0.002656935915747971</v>
       </c>
       <c r="H99">
-        <v>0.2072429730580096</v>
+        <v>-0.03837276293027096</v>
       </c>
       <c r="I99">
-        <v>-0.02364947573126682</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.1131567770246784</v>
+      </c>
+      <c r="J99">
+        <v>-0.1396867500486127</v>
+      </c>
+      <c r="K99">
+        <v>0.02073597043236624</v>
+      </c>
+      <c r="L99">
+        <v>0.02096145621691827</v>
+      </c>
+      <c r="M99">
+        <v>-0.2262415834222657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05067298418984525</v>
+        <v>-0.04496132719187723</v>
       </c>
       <c r="C101">
-        <v>0.01656230874863744</v>
+        <v>-0.02315062481408297</v>
       </c>
       <c r="D101">
-        <v>0.01048922068990928</v>
+        <v>0.003242317769448201</v>
       </c>
       <c r="E101">
-        <v>-0.02092625996504371</v>
+        <v>-0.02048917542840694</v>
       </c>
       <c r="F101">
-        <v>0.002905103185306502</v>
+        <v>-0.04397714082038245</v>
       </c>
       <c r="G101">
-        <v>0.01496901326866928</v>
+        <v>-0.0376458276929547</v>
       </c>
       <c r="H101">
-        <v>-0.02910904462956765</v>
+        <v>0.05020986790767133</v>
       </c>
       <c r="I101">
-        <v>-0.01643543537144453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.01079976617280362</v>
+      </c>
+      <c r="J101">
+        <v>0.02289830442079476</v>
+      </c>
+      <c r="K101">
+        <v>-0.03777272746087988</v>
+      </c>
+      <c r="L101">
+        <v>0.03175251857473928</v>
+      </c>
+      <c r="M101">
+        <v>0.03150307536294106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
